--- a/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
+++ b/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
@@ -450,7 +450,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2174,11 +2174,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="32623142"/>
-        <c:axId val="4254259"/>
+        <c:axId val="83312517"/>
+        <c:axId val="84125141"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32623142"/>
+        <c:axId val="83312517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2210,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4254259"/>
+        <c:crossAx val="84125141"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4254259"/>
+        <c:axId val="84125141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32623142"/>
+        <c:crossAx val="83312517"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2309,7 +2309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2408,783 +2408,783 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>2.68</c:v>
+                  <c:v>4.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.68573944627193</c:v>
+                  <c:v>4.569765625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.66852110745614</c:v>
+                  <c:v>4.57953125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.69721833881579</c:v>
+                  <c:v>4.589296875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.70295778508772</c:v>
+                  <c:v>4.5990625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.70869723135965</c:v>
+                  <c:v>4.608828125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.64556332236842</c:v>
+                  <c:v>4.61859375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.63982387609649</c:v>
+                  <c:v>4.628359375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.63408442982456</c:v>
+                  <c:v>4.638125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.73165501644737</c:v>
+                  <c:v>4.647890625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7373944627193</c:v>
+                  <c:v>4.65765625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.74313390899123</c:v>
+                  <c:v>4.667421875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.74887335526316</c:v>
+                  <c:v>4.6771875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.75461280153509</c:v>
+                  <c:v>4.686953125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.76035224780702</c:v>
+                  <c:v>4.69671875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.76609169407895</c:v>
+                  <c:v>4.706484375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.77183114035088</c:v>
+                  <c:v>4.71625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.77757058662281</c:v>
+                  <c:v>4.726015625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.78331003289474</c:v>
+                  <c:v>4.73578125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.78904947916667</c:v>
+                  <c:v>4.745546875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7947889254386</c:v>
+                  <c:v>4.7553125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.80052837171053</c:v>
+                  <c:v>4.765078125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.80626781798246</c:v>
+                  <c:v>4.77484375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.81200726425439</c:v>
+                  <c:v>4.784609375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.81774671052632</c:v>
+                  <c:v>4.794375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.82348615679825</c:v>
+                  <c:v>4.804140625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.82922560307018</c:v>
+                  <c:v>4.81390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.83496504934211</c:v>
+                  <c:v>4.823671875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.84070449561404</c:v>
+                  <c:v>4.8334375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.84644394188597</c:v>
+                  <c:v>4.843203125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.8521833881579</c:v>
+                  <c:v>4.85296875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.85792283442983</c:v>
+                  <c:v>4.862734375</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.86366228070175</c:v>
+                  <c:v>4.8725</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.86940172697368</c:v>
+                  <c:v>4.882265625</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.87514117324561</c:v>
+                  <c:v>4.89203125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.88088061951754</c:v>
+                  <c:v>4.901796875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.88662006578947</c:v>
+                  <c:v>4.9115625</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8923595120614</c:v>
+                  <c:v>4.921328125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.89809895833333</c:v>
+                  <c:v>4.93109375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.90383840460526</c:v>
+                  <c:v>4.940859375</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.90957785087719</c:v>
+                  <c:v>4.950625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.91531729714912</c:v>
+                  <c:v>4.960390625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.92105674342105</c:v>
+                  <c:v>4.97015625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.92679618969298</c:v>
+                  <c:v>4.979921875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.93253563596491</c:v>
+                  <c:v>4.9896875</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.93827508223684</c:v>
+                  <c:v>4.999453125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.94401452850877</c:v>
+                  <c:v>5.00921875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9497539747807</c:v>
+                  <c:v>5.018984375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.95549342105263</c:v>
+                  <c:v>5.02875</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.96123286732456</c:v>
+                  <c:v>5.038515625</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.96697231359649</c:v>
+                  <c:v>5.04828125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.97271175986842</c:v>
+                  <c:v>5.058046875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.97845120614035</c:v>
+                  <c:v>5.0678125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.98419065241228</c:v>
+                  <c:v>5.077578125</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.98993009868421</c:v>
+                  <c:v>5.08734375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.99566954495614</c:v>
+                  <c:v>5.097109375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.00140899122807</c:v>
+                  <c:v>5.106875</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.0071484375</c:v>
+                  <c:v>5.116640625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.01288788377193</c:v>
+                  <c:v>5.12640625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.01862733004386</c:v>
+                  <c:v>5.136171875</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.02436677631579</c:v>
+                  <c:v>5.1459375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.03010622258772</c:v>
+                  <c:v>5.155703125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.03584566885965</c:v>
+                  <c:v>5.16546875</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.04158511513158</c:v>
+                  <c:v>5.175234375</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.04732456140351</c:v>
+                  <c:v>5.185</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.05306400767544</c:v>
+                  <c:v>5.194765625</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.05880345394737</c:v>
+                  <c:v>5.20453125</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0645429002193</c:v>
+                  <c:v>5.214296875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.07028234649123</c:v>
+                  <c:v>5.2240625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.07602179276316</c:v>
+                  <c:v>5.233828125</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.08176123903509</c:v>
+                  <c:v>5.24359375</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.08750068530702</c:v>
+                  <c:v>5.253359375</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.09324013157895</c:v>
+                  <c:v>5.263125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.09897957785088</c:v>
+                  <c:v>5.272890625</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.10471902412281</c:v>
+                  <c:v>5.28265625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.11045847039474</c:v>
+                  <c:v>5.292421875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.11619791666667</c:v>
+                  <c:v>5.3021875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1219373629386</c:v>
+                  <c:v>5.311953125</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.12767680921053</c:v>
+                  <c:v>5.32171875</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.13341625548246</c:v>
+                  <c:v>5.331484375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.13915570175439</c:v>
+                  <c:v>5.34125</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.14489514802632</c:v>
+                  <c:v>5.351015625</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.15063459429825</c:v>
+                  <c:v>3.75921875</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.15637404057018</c:v>
+                  <c:v>3.749453125</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.16211348684211</c:v>
+                  <c:v>3.7396875</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.16785293311404</c:v>
+                  <c:v>3.729921875</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.17359237938597</c:v>
+                  <c:v>3.72015625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.1793318256579</c:v>
+                  <c:v>3.710390625</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.18507127192982</c:v>
+                  <c:v>3.700625</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.19081071820176</c:v>
+                  <c:v>3.690859375</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.19655016447368</c:v>
+                  <c:v>3.68109375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.20228961074561</c:v>
+                  <c:v>3.671328125</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.20802905701754</c:v>
+                  <c:v>3.6615625</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.21376850328947</c:v>
+                  <c:v>3.651796875</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.2195079495614</c:v>
+                  <c:v>3.64203125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.22524739583333</c:v>
+                  <c:v>3.632265625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.23098684210526</c:v>
+                  <c:v>3.6225</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.23672628837719</c:v>
+                  <c:v>3.612734375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.24246573464912</c:v>
+                  <c:v>3.60296875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.24820518092105</c:v>
+                  <c:v>3.593203125</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.25394462719298</c:v>
+                  <c:v>3.5834375</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.25968407346491</c:v>
+                  <c:v>3.573671875</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.26542351973684</c:v>
+                  <c:v>3.56390625</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.27116296600877</c:v>
+                  <c:v>3.554140625</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.2769024122807</c:v>
+                  <c:v>3.544375</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.28264185855263</c:v>
+                  <c:v>3.534609375</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3.28838130482456</c:v>
+                  <c:v>3.52484375</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.29412075109649</c:v>
+                  <c:v>3.515078125</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.29986019736842</c:v>
+                  <c:v>3.5053125</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.30559964364035</c:v>
+                  <c:v>3.495546875</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.31133908991228</c:v>
+                  <c:v>3.48578125</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.31707853618421</c:v>
+                  <c:v>3.476015625</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.32281798245614</c:v>
+                  <c:v>3.46625</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.32855742872807</c:v>
+                  <c:v>3.456484375</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.334296875</c:v>
+                  <c:v>3.44671875</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.34003632127193</c:v>
+                  <c:v>3.436953125</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.34577576754386</c:v>
+                  <c:v>3.4271875</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.35151521381579</c:v>
+                  <c:v>3.417421875</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.35725466008772</c:v>
+                  <c:v>3.40765625</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.36299410635965</c:v>
+                  <c:v>3.397890625</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.36873355263158</c:v>
+                  <c:v>3.388125</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.37447299890351</c:v>
+                  <c:v>3.378359375</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.38021244517544</c:v>
+                  <c:v>3.36859375</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.38595189144737</c:v>
+                  <c:v>3.358828125</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.3916913377193</c:v>
+                  <c:v>3.3490625</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.39743078399123</c:v>
+                  <c:v>3.339296875</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.40317023026316</c:v>
+                  <c:v>3.32953125</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.40890967653509</c:v>
+                  <c:v>3.319765625</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.41464912280702</c:v>
+                  <c:v>3.31</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.42038856907895</c:v>
+                  <c:v>3.300234375</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.42612801535088</c:v>
+                  <c:v>3.29046875</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.43186746162281</c:v>
+                  <c:v>3.280703125</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.43760690789474</c:v>
+                  <c:v>3.2709375</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.44334635416667</c:v>
+                  <c:v>3.261171875</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.4490858004386</c:v>
+                  <c:v>3.25140625</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.45482524671053</c:v>
+                  <c:v>3.241640625</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.46056469298246</c:v>
+                  <c:v>3.231875</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.46630413925439</c:v>
+                  <c:v>3.222109375</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.47204358552632</c:v>
+                  <c:v>3.21234375</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.47778303179825</c:v>
+                  <c:v>3.202578125</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.48352247807018</c:v>
+                  <c:v>3.1928125</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.48926192434211</c:v>
+                  <c:v>3.183046875</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.49500137061404</c:v>
+                  <c:v>3.17328125</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.50074081688597</c:v>
+                  <c:v>3.163515625</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.5064802631579</c:v>
+                  <c:v>3.15375</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.51221970942982</c:v>
+                  <c:v>3.143984375</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.51795915570175</c:v>
+                  <c:v>3.13421875</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.52369860197368</c:v>
+                  <c:v>3.124453125</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.52943804824561</c:v>
+                  <c:v>3.1146875</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.53517749451754</c:v>
+                  <c:v>3.104921875</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.54091694078947</c:v>
+                  <c:v>3.09515625</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.5466563870614</c:v>
+                  <c:v>3.085390625</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.55239583333333</c:v>
+                  <c:v>3.075625</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.55813527960526</c:v>
+                  <c:v>3.065859375</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.56387472587719</c:v>
+                  <c:v>3.05609375</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.56961417214912</c:v>
+                  <c:v>3.046328125</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.57535361842105</c:v>
+                  <c:v>3.0365625</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.58109306469298</c:v>
+                  <c:v>3.026796875</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.58683251096491</c:v>
+                  <c:v>3.01703125</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.59257195723684</c:v>
+                  <c:v>3.007265625</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.59831140350877</c:v>
+                  <c:v>2.9975</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.6040508497807</c:v>
+                  <c:v>2.987734375</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.60979029605263</c:v>
+                  <c:v>2.97796875</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.61552974232456</c:v>
+                  <c:v>2.968203125</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.62126918859649</c:v>
+                  <c:v>2.9584375</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.62700863486842</c:v>
+                  <c:v>2.948671875</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.63274808114035</c:v>
+                  <c:v>2.93890625</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.63848752741228</c:v>
+                  <c:v>2.929140625</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.64422697368421</c:v>
+                  <c:v>2.919375</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.64996641995614</c:v>
+                  <c:v>2.909609375</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.65570586622807</c:v>
+                  <c:v>2.89984375</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.6614453125</c:v>
+                  <c:v>2.890078125</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.66718475877193</c:v>
+                  <c:v>2.8803125</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.67292420504386</c:v>
+                  <c:v>2.870546875</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.67866365131579</c:v>
+                  <c:v>2.86078125</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.68440309758772</c:v>
+                  <c:v>2.851015625</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.69014254385965</c:v>
+                  <c:v>2.84125</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.69588199013158</c:v>
+                  <c:v>2.831484375</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.70162143640351</c:v>
+                  <c:v>2.82171875</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.70736088267544</c:v>
+                  <c:v>2.811953125</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.71310032894737</c:v>
+                  <c:v>2.8021875</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.7188397752193</c:v>
+                  <c:v>2.792421875</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.72457922149123</c:v>
+                  <c:v>2.78265625</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.73031866776316</c:v>
+                  <c:v>2.772890625</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.73605811403509</c:v>
+                  <c:v>2.763125</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.74179756030702</c:v>
+                  <c:v>2.753359375</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.74753700657895</c:v>
+                  <c:v>2.74359375</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.75327645285088</c:v>
+                  <c:v>2.733828125</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.75901589912281</c:v>
+                  <c:v>2.7240625</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.76475534539474</c:v>
+                  <c:v>2.714296875</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.77049479166667</c:v>
+                  <c:v>2.70453125</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.7762342379386</c:v>
+                  <c:v>2.694765625</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.78197368421053</c:v>
+                  <c:v>2.685</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.78771313048246</c:v>
+                  <c:v>2.675234375</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.79345257675439</c:v>
+                  <c:v>2.66546875</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.79919202302632</c:v>
+                  <c:v>2.655703125</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.80493146929825</c:v>
+                  <c:v>2.6459375</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.81067091557018</c:v>
+                  <c:v>2.636171875</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.81641036184211</c:v>
+                  <c:v>2.62640625</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.82214980811404</c:v>
+                  <c:v>2.616640625</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.82788925438597</c:v>
+                  <c:v>2.606875</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.8336287006579</c:v>
+                  <c:v>2.597109375</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.83936814692982</c:v>
+                  <c:v>2.58734375</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.84510759320176</c:v>
+                  <c:v>2.577578125</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.85084703947368</c:v>
+                  <c:v>2.5678125</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.85658648574561</c:v>
+                  <c:v>2.558046875</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.86232593201754</c:v>
+                  <c:v>2.54828125</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.86806537828947</c:v>
+                  <c:v>2.538515625</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.8738048245614</c:v>
+                  <c:v>2.52875</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.87954427083333</c:v>
+                  <c:v>2.518984375</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.88528371710526</c:v>
+                  <c:v>2.50921875</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.89102316337719</c:v>
+                  <c:v>2.499453125</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.89676260964912</c:v>
+                  <c:v>2.4896875</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.90250205592105</c:v>
+                  <c:v>2.479921875</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.90824150219298</c:v>
+                  <c:v>2.47015625</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.91398094846491</c:v>
+                  <c:v>2.460390625</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.91972039473684</c:v>
+                  <c:v>2.450625</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.92545984100877</c:v>
+                  <c:v>2.440859375</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.9311992872807</c:v>
+                  <c:v>2.43109375</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3.93693873355263</c:v>
+                  <c:v>2.421328125</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3.94267817982456</c:v>
+                  <c:v>2.4115625</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.94841762609649</c:v>
+                  <c:v>2.401796875</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.95415707236842</c:v>
+                  <c:v>2.39203125</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.95989651864035</c:v>
+                  <c:v>2.382265625</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.96563596491228</c:v>
+                  <c:v>2.3725</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.97137541118421</c:v>
+                  <c:v>2.362734375</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3.97711485745614</c:v>
+                  <c:v>2.35296875</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3.98285430372807</c:v>
+                  <c:v>2.343203125</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.98859375</c:v>
+                  <c:v>2.3334375</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3.99433319627193</c:v>
+                  <c:v>2.323671875</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>4.00007264254386</c:v>
+                  <c:v>2.31390625</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>4.00581208881579</c:v>
+                  <c:v>2.304140625</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>4.01155153508772</c:v>
+                  <c:v>2.294375</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>4.01729098135965</c:v>
+                  <c:v>2.284609375</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>4.02303042763158</c:v>
+                  <c:v>2.27484375</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>4.02876987390351</c:v>
+                  <c:v>2.265078125</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.03450932017544</c:v>
+                  <c:v>2.2553125</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>4.04024876644737</c:v>
+                  <c:v>2.245546875</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>4.0459882127193</c:v>
+                  <c:v>2.23578125</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>4.05172765899123</c:v>
+                  <c:v>2.226015625</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>4.05746710526316</c:v>
+                  <c:v>2.21625</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>4.06320655153509</c:v>
+                  <c:v>2.206484375</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>4.06894599780702</c:v>
+                  <c:v>2.19671875</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>4.07468544407895</c:v>
+                  <c:v>2.186953125</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>4.08042489035088</c:v>
+                  <c:v>2.1771875</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>4.08616433662281</c:v>
+                  <c:v>2.167421875</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>4.09190378289474</c:v>
+                  <c:v>2.15765625</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>4.09764322916667</c:v>
+                  <c:v>2.147890625</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>4.1033826754386</c:v>
+                  <c:v>2.138125</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>4.10912212171053</c:v>
+                  <c:v>2.128359375</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>4.11486156798246</c:v>
+                  <c:v>2.11859375</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>4.12060101425439</c:v>
+                  <c:v>2.108828125</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>4.12634046052632</c:v>
+                  <c:v>2.0990625</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>4.13207990679825</c:v>
+                  <c:v>2.089296875</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>4.13781935307018</c:v>
+                  <c:v>2.07953125</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>4.14355879934211</c:v>
+                  <c:v>2.069765625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45215850"/>
-        <c:axId val="80377686"/>
+        <c:axId val="14116876"/>
+        <c:axId val="91126882"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45215850"/>
+        <c:axId val="14116876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,12 +3212,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80377686"/>
+        <c:crossAx val="91126882"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80377686"/>
+        <c:axId val="91126882"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45215850"/>
+        <c:crossAx val="14116876"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3313,9 +3313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600840</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3324,7 +3324,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6435000" y="809640"/>
-        <a:ext cx="6517800" cy="4071960"/>
+        <a:ext cx="6517440" cy="4071600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3348,9 +3348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>581400</xdr:colOff>
+      <xdr:colOff>581040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3359,7 +3359,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8088120" y="1107360"/>
-        <a:ext cx="9126000" cy="5132880"/>
+        <a:ext cx="9125640" cy="5132520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3380,7 +3380,7 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7850,7 +7850,7 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">MAX(C9:C264)</f>
-        <v>4.14355879934211</v>
+        <v>5.351015625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">MIN(C9:C264)</f>
-        <v>2.63408442982456</v>
+        <v>2.069765625</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,7 +7934,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>23500</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7958,10 +7958,10 @@
       </c>
       <c r="C9" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D9*B9/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.68</v>
+        <v>4.56</v>
       </c>
       <c r="D9" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B1, -1, 1 )</f>
+        <f aca="false">IF(  $B9&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -7975,10 +7975,10 @@
       </c>
       <c r="C10" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D10*B10/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.68573944627193</v>
+        <v>4.569765625</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B2, -1, 1 )</f>
+        <f aca="false">IF(  $B10&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -7992,11 +7992,11 @@
       </c>
       <c r="C11" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D11*B11/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.66852110745614</v>
+        <v>4.57953125</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B3, -1, 1 )</f>
-        <v>1</v>
+        <f aca="false">IF(  $B11&lt;$B$1, -1, 1 )</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,10 +8009,10 @@
       </c>
       <c r="C12" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D12*B12/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.69721833881579</v>
+        <v>4.589296875</v>
       </c>
       <c r="D12" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B4, -1, 1 )</f>
+        <f aca="false">IF(  $B12&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8026,10 +8026,10 @@
       </c>
       <c r="C13" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D13*B13/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.70295778508772</v>
+        <v>4.5990625</v>
       </c>
       <c r="D13" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B5, -1, 1 )</f>
+        <f aca="false">IF(  $B13&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8043,10 +8043,10 @@
       </c>
       <c r="C14" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D14*B14/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.70869723135965</v>
+        <v>4.608828125</v>
       </c>
       <c r="D14" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B6, -1, 1 )</f>
+        <f aca="false">IF(  $B14&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8060,11 +8060,11 @@
       </c>
       <c r="C15" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D15*B15/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.64556332236842</v>
+        <v>4.61859375</v>
       </c>
       <c r="D15" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B7, -1, 1 )</f>
-        <v>1</v>
+        <f aca="false">IF(  $B15&lt;$B$1, -1, 1 )</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,11 +8077,11 @@
       </c>
       <c r="C16" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D16*B16/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.63982387609649</v>
+        <v>4.628359375</v>
       </c>
       <c r="D16" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B8, -1, 1 )</f>
-        <v>1</v>
+        <f aca="false">IF(  $B16&lt;$B$1, -1, 1 )</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,11 +8094,11 @@
       </c>
       <c r="C17" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D17*B17/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.63408442982456</v>
+        <v>4.638125</v>
       </c>
       <c r="D17" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B9, -1, 1 )</f>
-        <v>1</v>
+        <f aca="false">IF(  $B17&lt;$B$1, -1, 1 )</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,10 +8111,10 @@
       </c>
       <c r="C18" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D18*B18/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.73165501644737</v>
+        <v>4.647890625</v>
       </c>
       <c r="D18" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B10, -1, 1 )</f>
+        <f aca="false">IF(  $B18&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8128,10 +8128,10 @@
       </c>
       <c r="C19" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D19*B19/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.7373944627193</v>
+        <v>4.65765625</v>
       </c>
       <c r="D19" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B11, -1, 1 )</f>
+        <f aca="false">IF(  $B19&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8145,10 +8145,10 @@
       </c>
       <c r="C20" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D20*B20/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.74313390899123</v>
+        <v>4.667421875</v>
       </c>
       <c r="D20" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B12, -1, 1 )</f>
+        <f aca="false">IF(  $B20&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8162,10 +8162,10 @@
       </c>
       <c r="C21" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D21*B21/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.74887335526316</v>
+        <v>4.6771875</v>
       </c>
       <c r="D21" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B13, -1, 1 )</f>
+        <f aca="false">IF(  $B21&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8179,10 +8179,10 @@
       </c>
       <c r="C22" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D22*B22/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.75461280153509</v>
+        <v>4.686953125</v>
       </c>
       <c r="D22" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B14, -1, 1 )</f>
+        <f aca="false">IF(  $B22&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8196,10 +8196,10 @@
       </c>
       <c r="C23" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D23*B23/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.76035224780702</v>
+        <v>4.69671875</v>
       </c>
       <c r="D23" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B15, -1, 1 )</f>
+        <f aca="false">IF(  $B23&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8213,10 +8213,10 @@
       </c>
       <c r="C24" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D24*B24/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.76609169407895</v>
+        <v>4.706484375</v>
       </c>
       <c r="D24" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B16, -1, 1 )</f>
+        <f aca="false">IF(  $B24&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8230,10 +8230,10 @@
       </c>
       <c r="C25" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D25*B25/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.77183114035088</v>
+        <v>4.71625</v>
       </c>
       <c r="D25" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B17, -1, 1 )</f>
+        <f aca="false">IF(  $B25&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8247,10 +8247,10 @@
       </c>
       <c r="C26" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D26*B26/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.77757058662281</v>
+        <v>4.726015625</v>
       </c>
       <c r="D26" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B18, -1, 1 )</f>
+        <f aca="false">IF(  $B26&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8264,10 +8264,10 @@
       </c>
       <c r="C27" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D27*B27/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.78331003289474</v>
+        <v>4.73578125</v>
       </c>
       <c r="D27" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B19, -1, 1 )</f>
+        <f aca="false">IF(  $B27&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8281,10 +8281,10 @@
       </c>
       <c r="C28" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D28*B28/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.78904947916667</v>
+        <v>4.745546875</v>
       </c>
       <c r="D28" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B20, -1, 1 )</f>
+        <f aca="false">IF(  $B28&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8298,10 +8298,10 @@
       </c>
       <c r="C29" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D29*B29/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.7947889254386</v>
+        <v>4.7553125</v>
       </c>
       <c r="D29" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B21, -1, 1 )</f>
+        <f aca="false">IF(  $B29&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8315,10 +8315,10 @@
       </c>
       <c r="C30" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D30*B30/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.80052837171053</v>
+        <v>4.765078125</v>
       </c>
       <c r="D30" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B22, -1, 1 )</f>
+        <f aca="false">IF(  $B30&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8332,10 +8332,10 @@
       </c>
       <c r="C31" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D31*B31/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.80626781798246</v>
+        <v>4.77484375</v>
       </c>
       <c r="D31" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B23, -1, 1 )</f>
+        <f aca="false">IF(  $B31&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8349,10 +8349,10 @@
       </c>
       <c r="C32" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D32*B32/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.81200726425439</v>
+        <v>4.784609375</v>
       </c>
       <c r="D32" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B24, -1, 1 )</f>
+        <f aca="false">IF(  $B32&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8366,10 +8366,10 @@
       </c>
       <c r="C33" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D33*B33/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.81774671052632</v>
+        <v>4.794375</v>
       </c>
       <c r="D33" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B25, -1, 1 )</f>
+        <f aca="false">IF(  $B33&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8383,10 +8383,10 @@
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D34*B34/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.82348615679825</v>
+        <v>4.804140625</v>
       </c>
       <c r="D34" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B26, -1, 1 )</f>
+        <f aca="false">IF(  $B34&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8400,10 +8400,10 @@
       </c>
       <c r="C35" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D35*B35/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.82922560307018</v>
+        <v>4.81390625</v>
       </c>
       <c r="D35" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B27, -1, 1 )</f>
+        <f aca="false">IF(  $B35&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8417,10 +8417,10 @@
       </c>
       <c r="C36" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D36*B36/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.83496504934211</v>
+        <v>4.823671875</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B28, -1, 1 )</f>
+        <f aca="false">IF(  $B36&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8434,10 +8434,10 @@
       </c>
       <c r="C37" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D37*B37/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.84070449561404</v>
+        <v>4.8334375</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B29, -1, 1 )</f>
+        <f aca="false">IF(  $B37&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8451,10 +8451,10 @@
       </c>
       <c r="C38" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D38*B38/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.84644394188597</v>
+        <v>4.843203125</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B30, -1, 1 )</f>
+        <f aca="false">IF(  $B38&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8468,10 +8468,10 @@
       </c>
       <c r="C39" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D39*B39/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.8521833881579</v>
+        <v>4.85296875</v>
       </c>
       <c r="D39" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B31, -1, 1 )</f>
+        <f aca="false">IF(  $B39&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8485,10 +8485,10 @@
       </c>
       <c r="C40" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D40*B40/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.85792283442983</v>
+        <v>4.862734375</v>
       </c>
       <c r="D40" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B32, -1, 1 )</f>
+        <f aca="false">IF(  $B40&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8502,10 +8502,10 @@
       </c>
       <c r="C41" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D41*B41/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.86366228070175</v>
+        <v>4.8725</v>
       </c>
       <c r="D41" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B33, -1, 1 )</f>
+        <f aca="false">IF(  $B41&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8519,10 +8519,10 @@
       </c>
       <c r="C42" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D42*B42/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.86940172697368</v>
+        <v>4.882265625</v>
       </c>
       <c r="D42" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B34, -1, 1 )</f>
+        <f aca="false">IF(  $B42&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8536,10 +8536,10 @@
       </c>
       <c r="C43" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D43*B43/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.87514117324561</v>
+        <v>4.89203125</v>
       </c>
       <c r="D43" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B35, -1, 1 )</f>
+        <f aca="false">IF(  $B43&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8553,10 +8553,10 @@
       </c>
       <c r="C44" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D44*B44/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.88088061951754</v>
+        <v>4.901796875</v>
       </c>
       <c r="D44" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B36, -1, 1 )</f>
+        <f aca="false">IF(  $B44&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8570,10 +8570,10 @@
       </c>
       <c r="C45" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D45*B45/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.88662006578947</v>
+        <v>4.9115625</v>
       </c>
       <c r="D45" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B37, -1, 1 )</f>
+        <f aca="false">IF(  $B45&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8587,10 +8587,10 @@
       </c>
       <c r="C46" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D46*B46/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.8923595120614</v>
+        <v>4.921328125</v>
       </c>
       <c r="D46" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B38, -1, 1 )</f>
+        <f aca="false">IF(  $B46&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8604,10 +8604,10 @@
       </c>
       <c r="C47" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D47*B47/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.89809895833333</v>
+        <v>4.93109375</v>
       </c>
       <c r="D47" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B39, -1, 1 )</f>
+        <f aca="false">IF(  $B47&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8621,10 +8621,10 @@
       </c>
       <c r="C48" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D48*B48/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.90383840460526</v>
+        <v>4.940859375</v>
       </c>
       <c r="D48" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B40, -1, 1 )</f>
+        <f aca="false">IF(  $B48&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8638,10 +8638,10 @@
       </c>
       <c r="C49" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D49*B49/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.90957785087719</v>
+        <v>4.950625</v>
       </c>
       <c r="D49" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B41, -1, 1 )</f>
+        <f aca="false">IF(  $B49&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8655,10 +8655,10 @@
       </c>
       <c r="C50" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D50*B50/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.91531729714912</v>
+        <v>4.960390625</v>
       </c>
       <c r="D50" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B42, -1, 1 )</f>
+        <f aca="false">IF(  $B50&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8672,10 +8672,10 @@
       </c>
       <c r="C51" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D51*B51/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.92105674342105</v>
+        <v>4.97015625</v>
       </c>
       <c r="D51" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B43, -1, 1 )</f>
+        <f aca="false">IF(  $B51&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8689,10 +8689,10 @@
       </c>
       <c r="C52" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D52*B52/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.92679618969298</v>
+        <v>4.979921875</v>
       </c>
       <c r="D52" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B44, -1, 1 )</f>
+        <f aca="false">IF(  $B52&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8706,10 +8706,10 @@
       </c>
       <c r="C53" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D53*B53/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.93253563596491</v>
+        <v>4.9896875</v>
       </c>
       <c r="D53" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B45, -1, 1 )</f>
+        <f aca="false">IF(  $B53&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8723,10 +8723,10 @@
       </c>
       <c r="C54" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D54*B54/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.93827508223684</v>
+        <v>4.999453125</v>
       </c>
       <c r="D54" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B46, -1, 1 )</f>
+        <f aca="false">IF(  $B54&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8740,10 +8740,10 @@
       </c>
       <c r="C55" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D55*B55/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.94401452850877</v>
+        <v>5.00921875</v>
       </c>
       <c r="D55" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B47, -1, 1 )</f>
+        <f aca="false">IF(  $B55&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8757,10 +8757,10 @@
       </c>
       <c r="C56" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D56*B56/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.9497539747807</v>
+        <v>5.018984375</v>
       </c>
       <c r="D56" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B48, -1, 1 )</f>
+        <f aca="false">IF(  $B56&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8774,10 +8774,10 @@
       </c>
       <c r="C57" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D57*B57/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.95549342105263</v>
+        <v>5.02875</v>
       </c>
       <c r="D57" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B49, -1, 1 )</f>
+        <f aca="false">IF(  $B57&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8791,10 +8791,10 @@
       </c>
       <c r="C58" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D58*B58/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.96123286732456</v>
+        <v>5.038515625</v>
       </c>
       <c r="D58" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B50, -1, 1 )</f>
+        <f aca="false">IF(  $B58&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8808,10 +8808,10 @@
       </c>
       <c r="C59" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D59*B59/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.96697231359649</v>
+        <v>5.04828125</v>
       </c>
       <c r="D59" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B51, -1, 1 )</f>
+        <f aca="false">IF(  $B59&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8825,10 +8825,10 @@
       </c>
       <c r="C60" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D60*B60/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.97271175986842</v>
+        <v>5.058046875</v>
       </c>
       <c r="D60" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B52, -1, 1 )</f>
+        <f aca="false">IF(  $B60&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8842,10 +8842,10 @@
       </c>
       <c r="C61" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D61*B61/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.97845120614035</v>
+        <v>5.0678125</v>
       </c>
       <c r="D61" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B53, -1, 1 )</f>
+        <f aca="false">IF(  $B61&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8859,10 +8859,10 @@
       </c>
       <c r="C62" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D62*B62/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.98419065241228</v>
+        <v>5.077578125</v>
       </c>
       <c r="D62" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B54, -1, 1 )</f>
+        <f aca="false">IF(  $B62&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8876,10 +8876,10 @@
       </c>
       <c r="C63" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D63*B63/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.98993009868421</v>
+        <v>5.08734375</v>
       </c>
       <c r="D63" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B55, -1, 1 )</f>
+        <f aca="false">IF(  $B63&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8893,10 +8893,10 @@
       </c>
       <c r="C64" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D64*B64/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>2.99566954495614</v>
+        <v>5.097109375</v>
       </c>
       <c r="D64" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B56, -1, 1 )</f>
+        <f aca="false">IF(  $B64&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8910,10 +8910,10 @@
       </c>
       <c r="C65" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D65*B65/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.00140899122807</v>
+        <v>5.106875</v>
       </c>
       <c r="D65" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B57, -1, 1 )</f>
+        <f aca="false">IF(  $B65&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8927,10 +8927,10 @@
       </c>
       <c r="C66" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D66*B66/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.0071484375</v>
+        <v>5.116640625</v>
       </c>
       <c r="D66" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B58, -1, 1 )</f>
+        <f aca="false">IF(  $B66&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8944,10 +8944,10 @@
       </c>
       <c r="C67" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D67*B67/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.01288788377193</v>
+        <v>5.12640625</v>
       </c>
       <c r="D67" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B59, -1, 1 )</f>
+        <f aca="false">IF(  $B67&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8961,10 +8961,10 @@
       </c>
       <c r="C68" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D68*B68/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.01862733004386</v>
+        <v>5.136171875</v>
       </c>
       <c r="D68" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B60, -1, 1 )</f>
+        <f aca="false">IF(  $B68&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8978,10 +8978,10 @@
       </c>
       <c r="C69" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D69*B69/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.02436677631579</v>
+        <v>5.1459375</v>
       </c>
       <c r="D69" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B61, -1, 1 )</f>
+        <f aca="false">IF(  $B69&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -8995,10 +8995,10 @@
       </c>
       <c r="C70" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D70*B70/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.03010622258772</v>
+        <v>5.155703125</v>
       </c>
       <c r="D70" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B62, -1, 1 )</f>
+        <f aca="false">IF(  $B70&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9012,10 +9012,10 @@
       </c>
       <c r="C71" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D71*B71/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.03584566885965</v>
+        <v>5.16546875</v>
       </c>
       <c r="D71" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B63, -1, 1 )</f>
+        <f aca="false">IF(  $B71&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9029,10 +9029,10 @@
       </c>
       <c r="C72" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D72*B72/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.04158511513158</v>
+        <v>5.175234375</v>
       </c>
       <c r="D72" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B64, -1, 1 )</f>
+        <f aca="false">IF(  $B72&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9046,10 +9046,10 @@
       </c>
       <c r="C73" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D73*B73/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.04732456140351</v>
+        <v>5.185</v>
       </c>
       <c r="D73" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B65, -1, 1 )</f>
+        <f aca="false">IF(  $B73&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9063,10 +9063,10 @@
       </c>
       <c r="C74" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D74*B74/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.05306400767544</v>
+        <v>5.194765625</v>
       </c>
       <c r="D74" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B66, -1, 1 )</f>
+        <f aca="false">IF(  $B74&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9080,10 +9080,10 @@
       </c>
       <c r="C75" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D75*B75/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.05880345394737</v>
+        <v>5.20453125</v>
       </c>
       <c r="D75" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B67, -1, 1 )</f>
+        <f aca="false">IF(  $B75&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9097,10 +9097,10 @@
       </c>
       <c r="C76" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D76*B76/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.0645429002193</v>
+        <v>5.214296875</v>
       </c>
       <c r="D76" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B68, -1, 1 )</f>
+        <f aca="false">IF(  $B76&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9114,10 +9114,10 @@
       </c>
       <c r="C77" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D77*B77/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.07028234649123</v>
+        <v>5.2240625</v>
       </c>
       <c r="D77" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B69, -1, 1 )</f>
+        <f aca="false">IF(  $B77&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9131,10 +9131,10 @@
       </c>
       <c r="C78" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D78*B78/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.07602179276316</v>
+        <v>5.233828125</v>
       </c>
       <c r="D78" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B70, -1, 1 )</f>
+        <f aca="false">IF(  $B78&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9148,10 +9148,10 @@
       </c>
       <c r="C79" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D79*B79/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.08176123903509</v>
+        <v>5.24359375</v>
       </c>
       <c r="D79" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B71, -1, 1 )</f>
+        <f aca="false">IF(  $B79&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9165,10 +9165,10 @@
       </c>
       <c r="C80" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D80*B80/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.08750068530702</v>
+        <v>5.253359375</v>
       </c>
       <c r="D80" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B72, -1, 1 )</f>
+        <f aca="false">IF(  $B80&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9182,10 +9182,10 @@
       </c>
       <c r="C81" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D81*B81/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.09324013157895</v>
+        <v>5.263125</v>
       </c>
       <c r="D81" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B73, -1, 1 )</f>
+        <f aca="false">IF(  $B81&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9199,10 +9199,10 @@
       </c>
       <c r="C82" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D82*B82/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.09897957785088</v>
+        <v>5.272890625</v>
       </c>
       <c r="D82" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B74, -1, 1 )</f>
+        <f aca="false">IF(  $B82&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9216,10 +9216,10 @@
       </c>
       <c r="C83" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D83*B83/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.10471902412281</v>
+        <v>5.28265625</v>
       </c>
       <c r="D83" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B75, -1, 1 )</f>
+        <f aca="false">IF(  $B83&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9233,10 +9233,10 @@
       </c>
       <c r="C84" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D84*B84/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.11045847039474</v>
+        <v>5.292421875</v>
       </c>
       <c r="D84" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B76, -1, 1 )</f>
+        <f aca="false">IF(  $B84&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9250,10 +9250,10 @@
       </c>
       <c r="C85" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D85*B85/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.11619791666667</v>
+        <v>5.3021875</v>
       </c>
       <c r="D85" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B77, -1, 1 )</f>
+        <f aca="false">IF(  $B85&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9267,10 +9267,10 @@
       </c>
       <c r="C86" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D86*B86/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.1219373629386</v>
+        <v>5.311953125</v>
       </c>
       <c r="D86" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B78, -1, 1 )</f>
+        <f aca="false">IF(  $B86&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9284,10 +9284,10 @@
       </c>
       <c r="C87" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D87*B87/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.12767680921053</v>
+        <v>5.32171875</v>
       </c>
       <c r="D87" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B79, -1, 1 )</f>
+        <f aca="false">IF(  $B87&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9301,10 +9301,10 @@
       </c>
       <c r="C88" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D88*B88/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.13341625548246</v>
+        <v>5.331484375</v>
       </c>
       <c r="D88" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B80, -1, 1 )</f>
+        <f aca="false">IF(  $B88&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9318,10 +9318,10 @@
       </c>
       <c r="C89" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D89*B89/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.13915570175439</v>
+        <v>5.34125</v>
       </c>
       <c r="D89" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B81, -1, 1 )</f>
+        <f aca="false">IF(  $B89&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9335,10 +9335,10 @@
       </c>
       <c r="C90" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D90*B90/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.14489514802632</v>
+        <v>5.351015625</v>
       </c>
       <c r="D90" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B82, -1, 1 )</f>
+        <f aca="false">IF(  $B90&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
     </row>
@@ -9352,11 +9352,11 @@
       </c>
       <c r="C91" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D91*B91/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.15063459429825</v>
+        <v>3.75921875</v>
       </c>
       <c r="D91" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B83, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B91&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9369,11 +9369,11 @@
       </c>
       <c r="C92" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D92*B92/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.15637404057018</v>
+        <v>3.749453125</v>
       </c>
       <c r="D92" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B84, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B92&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,11 +9386,11 @@
       </c>
       <c r="C93" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D93*B93/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.16211348684211</v>
+        <v>3.7396875</v>
       </c>
       <c r="D93" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B85, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B93&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9403,11 +9403,11 @@
       </c>
       <c r="C94" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D94*B94/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.16785293311404</v>
+        <v>3.729921875</v>
       </c>
       <c r="D94" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B86, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B94&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,11 +9420,11 @@
       </c>
       <c r="C95" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D95*B95/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.17359237938597</v>
+        <v>3.72015625</v>
       </c>
       <c r="D95" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B87, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B95&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9437,11 +9437,11 @@
       </c>
       <c r="C96" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D96*B96/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.1793318256579</v>
+        <v>3.710390625</v>
       </c>
       <c r="D96" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B88, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B96&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9454,11 +9454,11 @@
       </c>
       <c r="C97" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D97*B97/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.18507127192982</v>
+        <v>3.700625</v>
       </c>
       <c r="D97" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B89, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B97&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,11 +9471,11 @@
       </c>
       <c r="C98" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D98*B98/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.19081071820176</v>
+        <v>3.690859375</v>
       </c>
       <c r="D98" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B90, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B98&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9488,11 +9488,11 @@
       </c>
       <c r="C99" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D99*B99/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.19655016447368</v>
+        <v>3.68109375</v>
       </c>
       <c r="D99" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B91, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B99&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9505,11 +9505,11 @@
       </c>
       <c r="C100" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D100*B100/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.20228961074561</v>
+        <v>3.671328125</v>
       </c>
       <c r="D100" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B92, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B100&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,11 +9522,11 @@
       </c>
       <c r="C101" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D101*B101/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.20802905701754</v>
+        <v>3.6615625</v>
       </c>
       <c r="D101" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B93, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B101&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,11 +9539,11 @@
       </c>
       <c r="C102" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D102*B102/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.21376850328947</v>
+        <v>3.651796875</v>
       </c>
       <c r="D102" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B94, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B102&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9556,11 +9556,11 @@
       </c>
       <c r="C103" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D103*B103/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.2195079495614</v>
+        <v>3.64203125</v>
       </c>
       <c r="D103" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B95, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B103&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9573,11 +9573,11 @@
       </c>
       <c r="C104" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D104*B104/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.22524739583333</v>
+        <v>3.632265625</v>
       </c>
       <c r="D104" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B96, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B104&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9590,11 +9590,11 @@
       </c>
       <c r="C105" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D105*B105/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.23098684210526</v>
+        <v>3.6225</v>
       </c>
       <c r="D105" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B97, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B105&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="C106" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D106*B106/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.23672628837719</v>
+        <v>3.612734375</v>
       </c>
       <c r="D106" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B98, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B106&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9624,11 +9624,11 @@
       </c>
       <c r="C107" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D107*B107/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.24246573464912</v>
+        <v>3.60296875</v>
       </c>
       <c r="D107" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B99, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B107&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="C108" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D108*B108/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.24820518092105</v>
+        <v>3.593203125</v>
       </c>
       <c r="D108" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B100, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B108&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9658,11 +9658,11 @@
       </c>
       <c r="C109" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D109*B109/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.25394462719298</v>
+        <v>3.5834375</v>
       </c>
       <c r="D109" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B101, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B109&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9675,11 +9675,11 @@
       </c>
       <c r="C110" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D110*B110/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.25968407346491</v>
+        <v>3.573671875</v>
       </c>
       <c r="D110" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B102, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B110&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9692,11 +9692,11 @@
       </c>
       <c r="C111" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D111*B111/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.26542351973684</v>
+        <v>3.56390625</v>
       </c>
       <c r="D111" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B103, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B111&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,11 +9709,11 @@
       </c>
       <c r="C112" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D112*B112/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.27116296600877</v>
+        <v>3.554140625</v>
       </c>
       <c r="D112" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B104, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B112&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9726,11 +9726,11 @@
       </c>
       <c r="C113" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D113*B113/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.2769024122807</v>
+        <v>3.544375</v>
       </c>
       <c r="D113" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B105, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B113&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9743,11 +9743,11 @@
       </c>
       <c r="C114" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D114*B114/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.28264185855263</v>
+        <v>3.534609375</v>
       </c>
       <c r="D114" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B106, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B114&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9760,11 +9760,11 @@
       </c>
       <c r="C115" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D115*B115/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.28838130482456</v>
+        <v>3.52484375</v>
       </c>
       <c r="D115" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B107, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B115&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9777,11 +9777,11 @@
       </c>
       <c r="C116" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D116*B116/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.29412075109649</v>
+        <v>3.515078125</v>
       </c>
       <c r="D116" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B108, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B116&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9794,11 +9794,11 @@
       </c>
       <c r="C117" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D117*B117/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.29986019736842</v>
+        <v>3.5053125</v>
       </c>
       <c r="D117" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B109, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B117&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,11 +9811,11 @@
       </c>
       <c r="C118" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D118*B118/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.30559964364035</v>
+        <v>3.495546875</v>
       </c>
       <c r="D118" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B110, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B118&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9828,11 +9828,11 @@
       </c>
       <c r="C119" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D119*B119/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.31133908991228</v>
+        <v>3.48578125</v>
       </c>
       <c r="D119" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B111, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B119&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,11 +9845,11 @@
       </c>
       <c r="C120" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D120*B120/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.31707853618421</v>
+        <v>3.476015625</v>
       </c>
       <c r="D120" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B112, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B120&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,11 +9862,11 @@
       </c>
       <c r="C121" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D121*B121/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.32281798245614</v>
+        <v>3.46625</v>
       </c>
       <c r="D121" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B113, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B121&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9879,11 +9879,11 @@
       </c>
       <c r="C122" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D122*B122/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.32855742872807</v>
+        <v>3.456484375</v>
       </c>
       <c r="D122" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B114, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B122&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9896,11 +9896,11 @@
       </c>
       <c r="C123" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D123*B123/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.334296875</v>
+        <v>3.44671875</v>
       </c>
       <c r="D123" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B115, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B123&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9913,11 +9913,11 @@
       </c>
       <c r="C124" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D124*B124/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.34003632127193</v>
+        <v>3.436953125</v>
       </c>
       <c r="D124" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B116, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B124&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9930,11 +9930,11 @@
       </c>
       <c r="C125" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D125*B125/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.34577576754386</v>
+        <v>3.4271875</v>
       </c>
       <c r="D125" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B117, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B125&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,11 +9947,11 @@
       </c>
       <c r="C126" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D126*B126/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.35151521381579</v>
+        <v>3.417421875</v>
       </c>
       <c r="D126" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B118, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B126&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,11 +9964,11 @@
       </c>
       <c r="C127" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D127*B127/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.35725466008772</v>
+        <v>3.40765625</v>
       </c>
       <c r="D127" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B119, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B127&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,11 +9981,11 @@
       </c>
       <c r="C128" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D128*B128/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.36299410635965</v>
+        <v>3.397890625</v>
       </c>
       <c r="D128" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B120, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B128&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,11 +9998,11 @@
       </c>
       <c r="C129" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D129*B129/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.36873355263158</v>
+        <v>3.388125</v>
       </c>
       <c r="D129" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B121, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B129&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10015,11 +10015,11 @@
       </c>
       <c r="C130" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D130*B130/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.37447299890351</v>
+        <v>3.378359375</v>
       </c>
       <c r="D130" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B122, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B130&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10032,11 +10032,11 @@
       </c>
       <c r="C131" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D131*B131/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.38021244517544</v>
+        <v>3.36859375</v>
       </c>
       <c r="D131" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B123, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B131&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,11 +10049,11 @@
       </c>
       <c r="C132" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D132*B132/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.38595189144737</v>
+        <v>3.358828125</v>
       </c>
       <c r="D132" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B124, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B132&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10066,11 +10066,11 @@
       </c>
       <c r="C133" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D133*B133/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.3916913377193</v>
+        <v>3.3490625</v>
       </c>
       <c r="D133" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B125, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B133&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,11 +10083,11 @@
       </c>
       <c r="C134" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D134*B134/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.39743078399123</v>
+        <v>3.339296875</v>
       </c>
       <c r="D134" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B126, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B134&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10100,11 +10100,11 @@
       </c>
       <c r="C135" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D135*B135/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.40317023026316</v>
+        <v>3.32953125</v>
       </c>
       <c r="D135" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B127, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B135&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,11 +10117,11 @@
       </c>
       <c r="C136" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D136*B136/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.40890967653509</v>
+        <v>3.319765625</v>
       </c>
       <c r="D136" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B128, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B136&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10134,11 +10134,11 @@
       </c>
       <c r="C137" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D137*B137/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.41464912280702</v>
+        <v>3.31</v>
       </c>
       <c r="D137" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B129, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B137&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10151,11 +10151,11 @@
       </c>
       <c r="C138" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D138*B138/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.42038856907895</v>
+        <v>3.300234375</v>
       </c>
       <c r="D138" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B130, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B138&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10168,11 +10168,11 @@
       </c>
       <c r="C139" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D139*B139/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.42612801535088</v>
+        <v>3.29046875</v>
       </c>
       <c r="D139" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B131, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B139&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10185,11 +10185,11 @@
       </c>
       <c r="C140" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D140*B140/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.43186746162281</v>
+        <v>3.280703125</v>
       </c>
       <c r="D140" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B132, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B140&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="C141" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D141*B141/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.43760690789474</v>
+        <v>3.2709375</v>
       </c>
       <c r="D141" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B133, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B141&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10219,11 +10219,11 @@
       </c>
       <c r="C142" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D142*B142/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.44334635416667</v>
+        <v>3.261171875</v>
       </c>
       <c r="D142" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B134, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B142&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,11 +10236,11 @@
       </c>
       <c r="C143" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D143*B143/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.4490858004386</v>
+        <v>3.25140625</v>
       </c>
       <c r="D143" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B135, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B143&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10253,11 +10253,11 @@
       </c>
       <c r="C144" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D144*B144/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.45482524671053</v>
+        <v>3.241640625</v>
       </c>
       <c r="D144" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B136, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B144&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10270,11 +10270,11 @@
       </c>
       <c r="C145" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D145*B145/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.46056469298246</v>
+        <v>3.231875</v>
       </c>
       <c r="D145" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B137, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B145&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10287,11 +10287,11 @@
       </c>
       <c r="C146" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D146*B146/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.46630413925439</v>
+        <v>3.222109375</v>
       </c>
       <c r="D146" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B138, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B146&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10304,11 +10304,11 @@
       </c>
       <c r="C147" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D147*B147/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.47204358552632</v>
+        <v>3.21234375</v>
       </c>
       <c r="D147" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B139, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B147&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10321,11 +10321,11 @@
       </c>
       <c r="C148" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D148*B148/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.47778303179825</v>
+        <v>3.202578125</v>
       </c>
       <c r="D148" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B140, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B148&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10338,11 +10338,11 @@
       </c>
       <c r="C149" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D149*B149/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.48352247807018</v>
+        <v>3.1928125</v>
       </c>
       <c r="D149" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B141, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B149&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10355,11 +10355,11 @@
       </c>
       <c r="C150" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D150*B150/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.48926192434211</v>
+        <v>3.183046875</v>
       </c>
       <c r="D150" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B142, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B150&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,11 +10372,11 @@
       </c>
       <c r="C151" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D151*B151/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.49500137061404</v>
+        <v>3.17328125</v>
       </c>
       <c r="D151" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B143, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B151&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,11 +10389,11 @@
       </c>
       <c r="C152" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D152*B152/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.50074081688597</v>
+        <v>3.163515625</v>
       </c>
       <c r="D152" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B144, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B152&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10406,11 +10406,11 @@
       </c>
       <c r="C153" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D153*B153/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.5064802631579</v>
+        <v>3.15375</v>
       </c>
       <c r="D153" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B145, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B153&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="C154" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D154*B154/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.51221970942982</v>
+        <v>3.143984375</v>
       </c>
       <c r="D154" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B146, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B154&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10440,11 +10440,11 @@
       </c>
       <c r="C155" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D155*B155/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.51795915570175</v>
+        <v>3.13421875</v>
       </c>
       <c r="D155" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B147, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B155&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,11 +10457,11 @@
       </c>
       <c r="C156" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D156*B156/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.52369860197368</v>
+        <v>3.124453125</v>
       </c>
       <c r="D156" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B148, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B156&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10474,11 +10474,11 @@
       </c>
       <c r="C157" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D157*B157/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.52943804824561</v>
+        <v>3.1146875</v>
       </c>
       <c r="D157" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B149, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B157&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10491,11 +10491,11 @@
       </c>
       <c r="C158" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D158*B158/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.53517749451754</v>
+        <v>3.104921875</v>
       </c>
       <c r="D158" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B150, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B158&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10508,11 +10508,11 @@
       </c>
       <c r="C159" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D159*B159/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.54091694078947</v>
+        <v>3.09515625</v>
       </c>
       <c r="D159" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B151, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B159&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10525,11 +10525,11 @@
       </c>
       <c r="C160" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D160*B160/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.5466563870614</v>
+        <v>3.085390625</v>
       </c>
       <c r="D160" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B152, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B160&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10542,11 +10542,11 @@
       </c>
       <c r="C161" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D161*B161/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.55239583333333</v>
+        <v>3.075625</v>
       </c>
       <c r="D161" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B153, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B161&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10559,11 +10559,11 @@
       </c>
       <c r="C162" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D162*B162/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.55813527960526</v>
+        <v>3.065859375</v>
       </c>
       <c r="D162" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B154, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B162&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10576,11 +10576,11 @@
       </c>
       <c r="C163" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D163*B163/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.56387472587719</v>
+        <v>3.05609375</v>
       </c>
       <c r="D163" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B155, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B163&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10593,11 +10593,11 @@
       </c>
       <c r="C164" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D164*B164/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.56961417214912</v>
+        <v>3.046328125</v>
       </c>
       <c r="D164" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B156, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B164&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10610,11 +10610,11 @@
       </c>
       <c r="C165" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D165*B165/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.57535361842105</v>
+        <v>3.0365625</v>
       </c>
       <c r="D165" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B157, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B165&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,11 +10627,11 @@
       </c>
       <c r="C166" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D166*B166/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.58109306469298</v>
+        <v>3.026796875</v>
       </c>
       <c r="D166" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B158, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B166&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10644,11 +10644,11 @@
       </c>
       <c r="C167" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D167*B167/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.58683251096491</v>
+        <v>3.01703125</v>
       </c>
       <c r="D167" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B159, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B167&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10661,11 +10661,11 @@
       </c>
       <c r="C168" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D168*B168/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.59257195723684</v>
+        <v>3.007265625</v>
       </c>
       <c r="D168" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B160, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B168&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10678,11 +10678,11 @@
       </c>
       <c r="C169" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D169*B169/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.59831140350877</v>
+        <v>2.9975</v>
       </c>
       <c r="D169" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B161, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B169&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,11 +10695,11 @@
       </c>
       <c r="C170" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D170*B170/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.6040508497807</v>
+        <v>2.987734375</v>
       </c>
       <c r="D170" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B162, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B170&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10712,11 +10712,11 @@
       </c>
       <c r="C171" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D171*B171/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.60979029605263</v>
+        <v>2.97796875</v>
       </c>
       <c r="D171" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B163, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B171&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10729,11 +10729,11 @@
       </c>
       <c r="C172" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D172*B172/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.61552974232456</v>
+        <v>2.968203125</v>
       </c>
       <c r="D172" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B164, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B172&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10746,11 +10746,11 @@
       </c>
       <c r="C173" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D173*B173/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.62126918859649</v>
+        <v>2.9584375</v>
       </c>
       <c r="D173" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B165, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B173&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10763,11 +10763,11 @@
       </c>
       <c r="C174" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D174*B174/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.62700863486842</v>
+        <v>2.948671875</v>
       </c>
       <c r="D174" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B166, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B174&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10780,11 +10780,11 @@
       </c>
       <c r="C175" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D175*B175/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.63274808114035</v>
+        <v>2.93890625</v>
       </c>
       <c r="D175" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B167, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B175&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10797,11 +10797,11 @@
       </c>
       <c r="C176" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D176*B176/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.63848752741228</v>
+        <v>2.929140625</v>
       </c>
       <c r="D176" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B168, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B176&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10814,11 +10814,11 @@
       </c>
       <c r="C177" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D177*B177/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.64422697368421</v>
+        <v>2.919375</v>
       </c>
       <c r="D177" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B169, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B177&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10831,11 +10831,11 @@
       </c>
       <c r="C178" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D178*B178/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.64996641995614</v>
+        <v>2.909609375</v>
       </c>
       <c r="D178" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B170, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B178&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10848,11 +10848,11 @@
       </c>
       <c r="C179" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D179*B179/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.65570586622807</v>
+        <v>2.89984375</v>
       </c>
       <c r="D179" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B171, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B179&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,11 +10865,11 @@
       </c>
       <c r="C180" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D180*B180/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.6614453125</v>
+        <v>2.890078125</v>
       </c>
       <c r="D180" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B172, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B180&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10882,11 +10882,11 @@
       </c>
       <c r="C181" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D181*B181/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.66718475877193</v>
+        <v>2.8803125</v>
       </c>
       <c r="D181" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B173, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B181&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,11 +10899,11 @@
       </c>
       <c r="C182" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D182*B182/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.67292420504386</v>
+        <v>2.870546875</v>
       </c>
       <c r="D182" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B174, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B182&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,11 +10916,11 @@
       </c>
       <c r="C183" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D183*B183/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.67866365131579</v>
+        <v>2.86078125</v>
       </c>
       <c r="D183" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B175, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B183&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,11 +10933,11 @@
       </c>
       <c r="C184" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D184*B184/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.68440309758772</v>
+        <v>2.851015625</v>
       </c>
       <c r="D184" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B176, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B184&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10950,11 +10950,11 @@
       </c>
       <c r="C185" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D185*B185/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.69014254385965</v>
+        <v>2.84125</v>
       </c>
       <c r="D185" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B177, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B185&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10967,11 +10967,11 @@
       </c>
       <c r="C186" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D186*B186/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.69588199013158</v>
+        <v>2.831484375</v>
       </c>
       <c r="D186" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B178, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B186&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10984,11 +10984,11 @@
       </c>
       <c r="C187" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D187*B187/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.70162143640351</v>
+        <v>2.82171875</v>
       </c>
       <c r="D187" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B179, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B187&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11001,11 +11001,11 @@
       </c>
       <c r="C188" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D188*B188/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.70736088267544</v>
+        <v>2.811953125</v>
       </c>
       <c r="D188" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B180, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B188&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11018,11 +11018,11 @@
       </c>
       <c r="C189" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D189*B189/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.71310032894737</v>
+        <v>2.8021875</v>
       </c>
       <c r="D189" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B181, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B189&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,11 +11035,11 @@
       </c>
       <c r="C190" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D190*B190/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.7188397752193</v>
+        <v>2.792421875</v>
       </c>
       <c r="D190" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B182, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B190&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11052,11 +11052,11 @@
       </c>
       <c r="C191" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D191*B191/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.72457922149123</v>
+        <v>2.78265625</v>
       </c>
       <c r="D191" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B183, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B191&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,11 +11069,11 @@
       </c>
       <c r="C192" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D192*B192/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.73031866776316</v>
+        <v>2.772890625</v>
       </c>
       <c r="D192" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B184, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B192&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="C193" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D193*B193/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.73605811403509</v>
+        <v>2.763125</v>
       </c>
       <c r="D193" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B185, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B193&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11103,11 +11103,11 @@
       </c>
       <c r="C194" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D194*B194/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.74179756030702</v>
+        <v>2.753359375</v>
       </c>
       <c r="D194" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B186, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B194&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,11 +11120,11 @@
       </c>
       <c r="C195" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D195*B195/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.74753700657895</v>
+        <v>2.74359375</v>
       </c>
       <c r="D195" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B187, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B195&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,11 +11137,11 @@
       </c>
       <c r="C196" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D196*B196/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.75327645285088</v>
+        <v>2.733828125</v>
       </c>
       <c r="D196" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B188, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B196&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11154,11 +11154,11 @@
       </c>
       <c r="C197" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D197*B197/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.75901589912281</v>
+        <v>2.7240625</v>
       </c>
       <c r="D197" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B189, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B197&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11171,11 +11171,11 @@
       </c>
       <c r="C198" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D198*B198/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.76475534539474</v>
+        <v>2.714296875</v>
       </c>
       <c r="D198" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B190, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B198&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11188,11 +11188,11 @@
       </c>
       <c r="C199" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D199*B199/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.77049479166667</v>
+        <v>2.70453125</v>
       </c>
       <c r="D199" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B191, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B199&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11205,11 +11205,11 @@
       </c>
       <c r="C200" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D200*B200/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.7762342379386</v>
+        <v>2.694765625</v>
       </c>
       <c r="D200" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B192, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B200&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11222,11 +11222,11 @@
       </c>
       <c r="C201" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D201*B201/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.78197368421053</v>
+        <v>2.685</v>
       </c>
       <c r="D201" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B193, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B201&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="C202" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D202*B202/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.78771313048246</v>
+        <v>2.675234375</v>
       </c>
       <c r="D202" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B194, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B202&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11256,11 +11256,11 @@
       </c>
       <c r="C203" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D203*B203/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.79345257675439</v>
+        <v>2.66546875</v>
       </c>
       <c r="D203" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B195, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B203&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11273,11 +11273,11 @@
       </c>
       <c r="C204" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D204*B204/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.79919202302632</v>
+        <v>2.655703125</v>
       </c>
       <c r="D204" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B196, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B204&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11290,11 +11290,11 @@
       </c>
       <c r="C205" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D205*B205/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.80493146929825</v>
+        <v>2.6459375</v>
       </c>
       <c r="D205" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B197, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B205&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,11 +11307,11 @@
       </c>
       <c r="C206" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D206*B206/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.81067091557018</v>
+        <v>2.636171875</v>
       </c>
       <c r="D206" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B198, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B206&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,11 +11324,11 @@
       </c>
       <c r="C207" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D207*B207/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.81641036184211</v>
+        <v>2.62640625</v>
       </c>
       <c r="D207" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B199, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B207&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11341,11 +11341,11 @@
       </c>
       <c r="C208" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D208*B208/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.82214980811404</v>
+        <v>2.616640625</v>
       </c>
       <c r="D208" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B200, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B208&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11358,11 +11358,11 @@
       </c>
       <c r="C209" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D209*B209/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.82788925438597</v>
+        <v>2.606875</v>
       </c>
       <c r="D209" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B201, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B209&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11375,11 +11375,11 @@
       </c>
       <c r="C210" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D210*B210/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.8336287006579</v>
+        <v>2.597109375</v>
       </c>
       <c r="D210" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B202, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B210&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,11 +11392,11 @@
       </c>
       <c r="C211" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D211*B211/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.83936814692982</v>
+        <v>2.58734375</v>
       </c>
       <c r="D211" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B203, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B211&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11409,11 +11409,11 @@
       </c>
       <c r="C212" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D212*B212/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.84510759320176</v>
+        <v>2.577578125</v>
       </c>
       <c r="D212" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B204, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B212&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11426,11 +11426,11 @@
       </c>
       <c r="C213" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D213*B213/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.85084703947368</v>
+        <v>2.5678125</v>
       </c>
       <c r="D213" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B205, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B213&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11443,11 +11443,11 @@
       </c>
       <c r="C214" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D214*B214/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.85658648574561</v>
+        <v>2.558046875</v>
       </c>
       <c r="D214" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B206, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B214&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11460,11 +11460,11 @@
       </c>
       <c r="C215" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D215*B215/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.86232593201754</v>
+        <v>2.54828125</v>
       </c>
       <c r="D215" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B207, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B215&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,11 +11477,11 @@
       </c>
       <c r="C216" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D216*B216/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.86806537828947</v>
+        <v>2.538515625</v>
       </c>
       <c r="D216" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B208, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B216&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11494,11 +11494,11 @@
       </c>
       <c r="C217" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D217*B217/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.8738048245614</v>
+        <v>2.52875</v>
       </c>
       <c r="D217" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B209, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B217&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11511,11 +11511,11 @@
       </c>
       <c r="C218" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D218*B218/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.87954427083333</v>
+        <v>2.518984375</v>
       </c>
       <c r="D218" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B210, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B218&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11528,11 +11528,11 @@
       </c>
       <c r="C219" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D219*B219/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.88528371710526</v>
+        <v>2.50921875</v>
       </c>
       <c r="D219" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B211, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B219&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11545,11 +11545,11 @@
       </c>
       <c r="C220" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D220*B220/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.89102316337719</v>
+        <v>2.499453125</v>
       </c>
       <c r="D220" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B212, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B220&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11562,11 +11562,11 @@
       </c>
       <c r="C221" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D221*B221/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.89676260964912</v>
+        <v>2.4896875</v>
       </c>
       <c r="D221" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B213, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B221&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11579,11 +11579,11 @@
       </c>
       <c r="C222" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D222*B222/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.90250205592105</v>
+        <v>2.479921875</v>
       </c>
       <c r="D222" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B214, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B222&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11596,11 +11596,11 @@
       </c>
       <c r="C223" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D223*B223/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.90824150219298</v>
+        <v>2.47015625</v>
       </c>
       <c r="D223" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B215, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B223&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,11 +11613,11 @@
       </c>
       <c r="C224" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D224*B224/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.91398094846491</v>
+        <v>2.460390625</v>
       </c>
       <c r="D224" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B216, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B224&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11630,11 +11630,11 @@
       </c>
       <c r="C225" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D225*B225/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.91972039473684</v>
+        <v>2.450625</v>
       </c>
       <c r="D225" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B217, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B225&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11647,11 +11647,11 @@
       </c>
       <c r="C226" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D226*B226/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.92545984100877</v>
+        <v>2.440859375</v>
       </c>
       <c r="D226" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B218, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B226&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11664,11 +11664,11 @@
       </c>
       <c r="C227" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D227*B227/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.9311992872807</v>
+        <v>2.43109375</v>
       </c>
       <c r="D227" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B219, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B227&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,11 +11681,11 @@
       </c>
       <c r="C228" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D228*B228/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.93693873355263</v>
+        <v>2.421328125</v>
       </c>
       <c r="D228" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B220, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B228&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11698,11 +11698,11 @@
       </c>
       <c r="C229" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D229*B229/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.94267817982456</v>
+        <v>2.4115625</v>
       </c>
       <c r="D229" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B221, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B229&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11715,11 +11715,11 @@
       </c>
       <c r="C230" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D230*B230/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.94841762609649</v>
+        <v>2.401796875</v>
       </c>
       <c r="D230" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B222, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B230&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11732,11 +11732,11 @@
       </c>
       <c r="C231" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D231*B231/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.95415707236842</v>
+        <v>2.39203125</v>
       </c>
       <c r="D231" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B223, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B231&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11749,11 +11749,11 @@
       </c>
       <c r="C232" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D232*B232/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.95989651864035</v>
+        <v>2.382265625</v>
       </c>
       <c r="D232" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B224, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B232&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11766,11 +11766,11 @@
       </c>
       <c r="C233" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D233*B233/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.96563596491228</v>
+        <v>2.3725</v>
       </c>
       <c r="D233" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B225, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B233&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11783,11 +11783,11 @@
       </c>
       <c r="C234" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D234*B234/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.97137541118421</v>
+        <v>2.362734375</v>
       </c>
       <c r="D234" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B226, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B234&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11800,11 +11800,11 @@
       </c>
       <c r="C235" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D235*B235/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.97711485745614</v>
+        <v>2.35296875</v>
       </c>
       <c r="D235" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B227, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B235&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11817,11 +11817,11 @@
       </c>
       <c r="C236" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D236*B236/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.98285430372807</v>
+        <v>2.343203125</v>
       </c>
       <c r="D236" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B228, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B236&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11834,11 +11834,11 @@
       </c>
       <c r="C237" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D237*B237/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.98859375</v>
+        <v>2.3334375</v>
       </c>
       <c r="D237" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B229, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B237&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11851,11 +11851,11 @@
       </c>
       <c r="C238" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D238*B238/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>3.99433319627193</v>
+        <v>2.323671875</v>
       </c>
       <c r="D238" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B230, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B238&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11868,11 +11868,11 @@
       </c>
       <c r="C239" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D239*B239/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.00007264254386</v>
+        <v>2.31390625</v>
       </c>
       <c r="D239" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B231, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B239&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11885,11 +11885,11 @@
       </c>
       <c r="C240" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D240*B240/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.00581208881579</v>
+        <v>2.304140625</v>
       </c>
       <c r="D240" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B232, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B240&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,11 +11902,11 @@
       </c>
       <c r="C241" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D241*B241/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.01155153508772</v>
+        <v>2.294375</v>
       </c>
       <c r="D241" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B233, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B241&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11919,11 +11919,11 @@
       </c>
       <c r="C242" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D242*B242/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.01729098135965</v>
+        <v>2.284609375</v>
       </c>
       <c r="D242" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B234, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B242&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11936,11 +11936,11 @@
       </c>
       <c r="C243" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D243*B243/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.02303042763158</v>
+        <v>2.27484375</v>
       </c>
       <c r="D243" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B235, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B243&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11953,11 +11953,11 @@
       </c>
       <c r="C244" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D244*B244/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.02876987390351</v>
+        <v>2.265078125</v>
       </c>
       <c r="D244" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B236, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B244&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11970,11 +11970,11 @@
       </c>
       <c r="C245" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D245*B245/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.03450932017544</v>
+        <v>2.2553125</v>
       </c>
       <c r="D245" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B237, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B245&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11987,11 +11987,11 @@
       </c>
       <c r="C246" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D246*B246/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.04024876644737</v>
+        <v>2.245546875</v>
       </c>
       <c r="D246" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B238, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B246&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12004,11 +12004,11 @@
       </c>
       <c r="C247" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D247*B247/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.0459882127193</v>
+        <v>2.23578125</v>
       </c>
       <c r="D247" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B239, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B247&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12021,11 +12021,11 @@
       </c>
       <c r="C248" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D248*B248/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.05172765899123</v>
+        <v>2.226015625</v>
       </c>
       <c r="D248" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B240, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B248&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12038,11 +12038,11 @@
       </c>
       <c r="C249" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D249*B249/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.05746710526316</v>
+        <v>2.21625</v>
       </c>
       <c r="D249" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B241, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B249&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12055,11 +12055,11 @@
       </c>
       <c r="C250" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D250*B250/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.06320655153509</v>
+        <v>2.206484375</v>
       </c>
       <c r="D250" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B242, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B250&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12072,11 +12072,11 @@
       </c>
       <c r="C251" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D251*B251/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.06894599780702</v>
+        <v>2.19671875</v>
       </c>
       <c r="D251" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B243, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B251&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12089,11 +12089,11 @@
       </c>
       <c r="C252" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D252*B252/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.07468544407895</v>
+        <v>2.186953125</v>
       </c>
       <c r="D252" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B244, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B252&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12106,11 +12106,11 @@
       </c>
       <c r="C253" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D253*B253/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.08042489035088</v>
+        <v>2.1771875</v>
       </c>
       <c r="D253" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B245, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B253&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12123,11 +12123,11 @@
       </c>
       <c r="C254" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D254*B254/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.08616433662281</v>
+        <v>2.167421875</v>
       </c>
       <c r="D254" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B246, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B254&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12140,11 +12140,11 @@
       </c>
       <c r="C255" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D255*B255/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.09190378289474</v>
+        <v>2.15765625</v>
       </c>
       <c r="D255" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B247, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B255&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12157,11 +12157,11 @@
       </c>
       <c r="C256" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D256*B256/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.09764322916667</v>
+        <v>2.147890625</v>
       </c>
       <c r="D256" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B248, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B256&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12174,11 +12174,11 @@
       </c>
       <c r="C257" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D257*B257/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.1033826754386</v>
+        <v>2.138125</v>
       </c>
       <c r="D257" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B249, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B257&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12191,11 +12191,11 @@
       </c>
       <c r="C258" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D258*B258/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.10912212171053</v>
+        <v>2.128359375</v>
       </c>
       <c r="D258" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B250, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B258&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12208,11 +12208,11 @@
       </c>
       <c r="C259" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D259*B259/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.11486156798246</v>
+        <v>2.11859375</v>
       </c>
       <c r="D259" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B251, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B259&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12225,11 +12225,11 @@
       </c>
       <c r="C260" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D260*B260/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.12060101425439</v>
+        <v>2.108828125</v>
       </c>
       <c r="D260" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B252, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B260&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12242,11 +12242,11 @@
       </c>
       <c r="C261" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D261*B261/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.12634046052632</v>
+        <v>2.0990625</v>
       </c>
       <c r="D261" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B253, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B261&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12259,11 +12259,11 @@
       </c>
       <c r="C262" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D262*B262/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.13207990679825</v>
+        <v>2.089296875</v>
       </c>
       <c r="D262" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B254, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B262&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12276,11 +12276,11 @@
       </c>
       <c r="C263" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D263*B263/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.13781935307018</v>
+        <v>2.07953125</v>
       </c>
       <c r="D263" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B255, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B263&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12293,11 +12293,11 @@
       </c>
       <c r="C264" s="5" t="n">
         <f aca="false">( $B$1/$B$4 - D264*B264/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.14355879934211</v>
+        <v>2.069765625</v>
       </c>
       <c r="D264" s="1" t="n">
-        <f aca="false">IF(  $B$9&lt;B256, -1, 1 )</f>
-        <v>-1</v>
+        <f aca="false">IF(  $B264&lt;$B$1, -1, 1 )</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
+++ b/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
@@ -450,7 +450,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2174,11 +2174,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83312517"/>
-        <c:axId val="84125141"/>
+        <c:axId val="33082939"/>
+        <c:axId val="16023874"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83312517"/>
+        <c:axId val="33082939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2210,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84125141"/>
+        <c:crossAx val="16023874"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84125141"/>
+        <c:axId val="16023874"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2257,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83312517"/>
+        <c:crossAx val="33082939"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2309,7 +2309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2411,247 +2411,247 @@
                   <c:v>4.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.569765625</c:v>
+                  <c:v>4.550234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.57953125</c:v>
+                  <c:v>4.54046875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.589296875</c:v>
+                  <c:v>4.530703125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5990625</c:v>
+                  <c:v>4.5209375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.608828125</c:v>
+                  <c:v>4.511171875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.61859375</c:v>
+                  <c:v>4.50140625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.628359375</c:v>
+                  <c:v>4.491640625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.638125</c:v>
+                  <c:v>4.481875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.647890625</c:v>
+                  <c:v>4.472109375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.65765625</c:v>
+                  <c:v>4.46234375</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.667421875</c:v>
+                  <c:v>4.452578125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6771875</c:v>
+                  <c:v>4.4428125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.686953125</c:v>
+                  <c:v>4.433046875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.69671875</c:v>
+                  <c:v>4.42328125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.706484375</c:v>
+                  <c:v>4.413515625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.71625</c:v>
+                  <c:v>4.40375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.726015625</c:v>
+                  <c:v>4.393984375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.73578125</c:v>
+                  <c:v>4.38421875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.745546875</c:v>
+                  <c:v>4.374453125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.7553125</c:v>
+                  <c:v>4.3646875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.765078125</c:v>
+                  <c:v>4.354921875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.77484375</c:v>
+                  <c:v>4.34515625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.784609375</c:v>
+                  <c:v>4.335390625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.794375</c:v>
+                  <c:v>4.325625</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.804140625</c:v>
+                  <c:v>4.315859375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.81390625</c:v>
+                  <c:v>4.30609375</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.823671875</c:v>
+                  <c:v>4.296328125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.8334375</c:v>
+                  <c:v>4.2865625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.843203125</c:v>
+                  <c:v>4.276796875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.85296875</c:v>
+                  <c:v>4.26703125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.862734375</c:v>
+                  <c:v>4.257265625</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8725</c:v>
+                  <c:v>4.2475</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.882265625</c:v>
+                  <c:v>4.237734375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.89203125</c:v>
+                  <c:v>4.22796875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.901796875</c:v>
+                  <c:v>4.218203125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.9115625</c:v>
+                  <c:v>4.2084375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.921328125</c:v>
+                  <c:v>4.198671875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.93109375</c:v>
+                  <c:v>4.18890625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.940859375</c:v>
+                  <c:v>4.179140625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.950625</c:v>
+                  <c:v>4.169375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.960390625</c:v>
+                  <c:v>4.159609375</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.97015625</c:v>
+                  <c:v>4.14984375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.979921875</c:v>
+                  <c:v>4.140078125</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.9896875</c:v>
+                  <c:v>4.1303125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.999453125</c:v>
+                  <c:v>4.120546875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.00921875</c:v>
+                  <c:v>4.11078125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.018984375</c:v>
+                  <c:v>4.101015625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.02875</c:v>
+                  <c:v>4.09125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.038515625</c:v>
+                  <c:v>4.081484375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.04828125</c:v>
+                  <c:v>4.07171875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.058046875</c:v>
+                  <c:v>4.061953125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.0678125</c:v>
+                  <c:v>4.0521875</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.077578125</c:v>
+                  <c:v>4.042421875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.08734375</c:v>
+                  <c:v>4.03265625</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.097109375</c:v>
+                  <c:v>4.022890625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.106875</c:v>
+                  <c:v>4.013125</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.116640625</c:v>
+                  <c:v>4.003359375</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.12640625</c:v>
+                  <c:v>3.99359375</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.136171875</c:v>
+                  <c:v>3.983828125</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1459375</c:v>
+                  <c:v>3.9740625</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.155703125</c:v>
+                  <c:v>3.964296875</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.16546875</c:v>
+                  <c:v>3.95453125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.175234375</c:v>
+                  <c:v>3.944765625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.185</c:v>
+                  <c:v>3.935</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.194765625</c:v>
+                  <c:v>3.925234375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.20453125</c:v>
+                  <c:v>3.91546875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.214296875</c:v>
+                  <c:v>3.905703125</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.2240625</c:v>
+                  <c:v>3.8959375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.233828125</c:v>
+                  <c:v>3.886171875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.24359375</c:v>
+                  <c:v>3.87640625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.253359375</c:v>
+                  <c:v>3.866640625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.263125</c:v>
+                  <c:v>3.856875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.272890625</c:v>
+                  <c:v>3.847109375</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.28265625</c:v>
+                  <c:v>3.83734375</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.292421875</c:v>
+                  <c:v>3.827578125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.3021875</c:v>
+                  <c:v>3.8178125</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.311953125</c:v>
+                  <c:v>3.808046875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.32171875</c:v>
+                  <c:v>3.79828125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.331484375</c:v>
+                  <c:v>3.788515625</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.34125</c:v>
+                  <c:v>3.77875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.351015625</c:v>
+                  <c:v>3.768984375</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>3.75921875</c:v>
@@ -3180,11 +3180,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14116876"/>
-        <c:axId val="91126882"/>
+        <c:axId val="36991465"/>
+        <c:axId val="35257801"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14116876"/>
+        <c:axId val="36991465"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,12 +3212,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91126882"/>
+        <c:crossAx val="35257801"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91126882"/>
+        <c:axId val="35257801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3254,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14116876"/>
+        <c:crossAx val="36991465"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3313,9 +3313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3324,7 +3324,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6435000" y="809640"/>
-        <a:ext cx="6517440" cy="4071600"/>
+        <a:ext cx="6517080" cy="4071240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3348,9 +3348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>581040</xdr:colOff>
+      <xdr:colOff>580680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3359,7 +3359,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8088120" y="1107360"/>
-        <a:ext cx="9125640" cy="5132520"/>
+        <a:ext cx="9125280" cy="5132160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7850,7 +7850,7 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">MAX(C9:C264)</f>
-        <v>5.351015625</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D9*B9/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B9 / ( $B$4 + $B$5 )   )</f>
         <v>4.56</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -7974,8 +7974,8 @@
         <v>0.009765625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D10*B10/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.569765625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B10 / ( $B$4 + $B$5 )   )</f>
+        <v>4.550234375</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">IF(  $B10&lt;$B$1, -1, 1 )</f>
@@ -7991,8 +7991,8 @@
         <v>0.01953125</v>
       </c>
       <c r="C11" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D11*B11/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.57953125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B11 / ( $B$4 + $B$5 )   )</f>
+        <v>4.54046875</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">IF(  $B11&lt;$B$1, -1, 1 )</f>
@@ -8008,8 +8008,8 @@
         <v>0.029296875</v>
       </c>
       <c r="C12" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D12*B12/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.589296875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B12 / ( $B$4 + $B$5 )   )</f>
+        <v>4.530703125</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">IF(  $B12&lt;$B$1, -1, 1 )</f>
@@ -8025,8 +8025,8 @@
         <v>0.0390625</v>
       </c>
       <c r="C13" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D13*B13/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.5990625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B13 / ( $B$4 + $B$5 )   )</f>
+        <v>4.5209375</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">IF(  $B13&lt;$B$1, -1, 1 )</f>
@@ -8042,8 +8042,8 @@
         <v>0.048828125</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D14*B14/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.608828125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B14 / ( $B$4 + $B$5 )   )</f>
+        <v>4.511171875</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">IF(  $B14&lt;$B$1, -1, 1 )</f>
@@ -8059,8 +8059,8 @@
         <v>0.05859375</v>
       </c>
       <c r="C15" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D15*B15/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.61859375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B15 / ( $B$4 + $B$5 )   )</f>
+        <v>4.50140625</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">IF(  $B15&lt;$B$1, -1, 1 )</f>
@@ -8076,8 +8076,8 @@
         <v>0.068359375</v>
       </c>
       <c r="C16" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D16*B16/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.628359375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B16 / ( $B$4 + $B$5 )   )</f>
+        <v>4.491640625</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">IF(  $B16&lt;$B$1, -1, 1 )</f>
@@ -8093,8 +8093,8 @@
         <v>0.078125</v>
       </c>
       <c r="C17" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D17*B17/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.638125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B17 / ( $B$4 + $B$5 )   )</f>
+        <v>4.481875</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">IF(  $B17&lt;$B$1, -1, 1 )</f>
@@ -8110,8 +8110,8 @@
         <v>0.087890625</v>
       </c>
       <c r="C18" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D18*B18/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.647890625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B18 / ( $B$4 + $B$5 )   )</f>
+        <v>4.472109375</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">IF(  $B18&lt;$B$1, -1, 1 )</f>
@@ -8127,8 +8127,8 @@
         <v>0.09765625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D19*B19/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.65765625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B19 / ( $B$4 + $B$5 )   )</f>
+        <v>4.46234375</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">IF(  $B19&lt;$B$1, -1, 1 )</f>
@@ -8144,8 +8144,8 @@
         <v>0.107421875</v>
       </c>
       <c r="C20" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D20*B20/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.667421875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B20 / ( $B$4 + $B$5 )   )</f>
+        <v>4.452578125</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">IF(  $B20&lt;$B$1, -1, 1 )</f>
@@ -8161,8 +8161,8 @@
         <v>0.1171875</v>
       </c>
       <c r="C21" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D21*B21/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.6771875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B21 / ( $B$4 + $B$5 )   )</f>
+        <v>4.4428125</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">IF(  $B21&lt;$B$1, -1, 1 )</f>
@@ -8178,8 +8178,8 @@
         <v>0.126953125</v>
       </c>
       <c r="C22" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D22*B22/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.686953125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B22 / ( $B$4 + $B$5 )   )</f>
+        <v>4.433046875</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">IF(  $B22&lt;$B$1, -1, 1 )</f>
@@ -8195,8 +8195,8 @@
         <v>0.13671875</v>
       </c>
       <c r="C23" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D23*B23/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.69671875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B23 / ( $B$4 + $B$5 )   )</f>
+        <v>4.42328125</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">IF(  $B23&lt;$B$1, -1, 1 )</f>
@@ -8212,8 +8212,8 @@
         <v>0.146484375</v>
       </c>
       <c r="C24" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D24*B24/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.706484375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B24 / ( $B$4 + $B$5 )   )</f>
+        <v>4.413515625</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">IF(  $B24&lt;$B$1, -1, 1 )</f>
@@ -8229,8 +8229,8 @@
         <v>0.15625</v>
       </c>
       <c r="C25" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D25*B25/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.71625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B25 / ( $B$4 + $B$5 )   )</f>
+        <v>4.40375</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">IF(  $B25&lt;$B$1, -1, 1 )</f>
@@ -8246,8 +8246,8 @@
         <v>0.166015625</v>
       </c>
       <c r="C26" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D26*B26/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.726015625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B26 / ( $B$4 + $B$5 )   )</f>
+        <v>4.393984375</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">IF(  $B26&lt;$B$1, -1, 1 )</f>
@@ -8263,8 +8263,8 @@
         <v>0.17578125</v>
       </c>
       <c r="C27" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D27*B27/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.73578125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B27 / ( $B$4 + $B$5 )   )</f>
+        <v>4.38421875</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">IF(  $B27&lt;$B$1, -1, 1 )</f>
@@ -8280,8 +8280,8 @@
         <v>0.185546875</v>
       </c>
       <c r="C28" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D28*B28/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.745546875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B28 / ( $B$4 + $B$5 )   )</f>
+        <v>4.374453125</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">IF(  $B28&lt;$B$1, -1, 1 )</f>
@@ -8297,8 +8297,8 @@
         <v>0.1953125</v>
       </c>
       <c r="C29" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D29*B29/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.7553125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B29 / ( $B$4 + $B$5 )   )</f>
+        <v>4.3646875</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">IF(  $B29&lt;$B$1, -1, 1 )</f>
@@ -8314,8 +8314,8 @@
         <v>0.205078125</v>
       </c>
       <c r="C30" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D30*B30/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.765078125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B30 / ( $B$4 + $B$5 )   )</f>
+        <v>4.354921875</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">IF(  $B30&lt;$B$1, -1, 1 )</f>
@@ -8331,8 +8331,8 @@
         <v>0.21484375</v>
       </c>
       <c r="C31" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D31*B31/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.77484375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B31 / ( $B$4 + $B$5 )   )</f>
+        <v>4.34515625</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">IF(  $B31&lt;$B$1, -1, 1 )</f>
@@ -8348,8 +8348,8 @@
         <v>0.224609375</v>
       </c>
       <c r="C32" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D32*B32/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.784609375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B32 / ( $B$4 + $B$5 )   )</f>
+        <v>4.335390625</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">IF(  $B32&lt;$B$1, -1, 1 )</f>
@@ -8365,8 +8365,8 @@
         <v>0.234375</v>
       </c>
       <c r="C33" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D33*B33/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.794375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B33 / ( $B$4 + $B$5 )   )</f>
+        <v>4.325625</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">IF(  $B33&lt;$B$1, -1, 1 )</f>
@@ -8382,8 +8382,8 @@
         <v>0.244140625</v>
       </c>
       <c r="C34" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D34*B34/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.804140625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B34 / ( $B$4 + $B$5 )   )</f>
+        <v>4.315859375</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">IF(  $B34&lt;$B$1, -1, 1 )</f>
@@ -8399,8 +8399,8 @@
         <v>0.25390625</v>
       </c>
       <c r="C35" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D35*B35/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.81390625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B35 / ( $B$4 + $B$5 )   )</f>
+        <v>4.30609375</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">IF(  $B35&lt;$B$1, -1, 1 )</f>
@@ -8416,8 +8416,8 @@
         <v>0.263671875</v>
       </c>
       <c r="C36" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D36*B36/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.823671875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B36 / ( $B$4 + $B$5 )   )</f>
+        <v>4.296328125</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">IF(  $B36&lt;$B$1, -1, 1 )</f>
@@ -8433,8 +8433,8 @@
         <v>0.2734375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D37*B37/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.8334375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B37 / ( $B$4 + $B$5 )   )</f>
+        <v>4.2865625</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">IF(  $B37&lt;$B$1, -1, 1 )</f>
@@ -8450,8 +8450,8 @@
         <v>0.283203125</v>
       </c>
       <c r="C38" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D38*B38/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.843203125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B38 / ( $B$4 + $B$5 )   )</f>
+        <v>4.276796875</v>
       </c>
       <c r="D38" s="1" t="n">
         <f aca="false">IF(  $B38&lt;$B$1, -1, 1 )</f>
@@ -8467,8 +8467,8 @@
         <v>0.29296875</v>
       </c>
       <c r="C39" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D39*B39/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.85296875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B39 / ( $B$4 + $B$5 )   )</f>
+        <v>4.26703125</v>
       </c>
       <c r="D39" s="1" t="n">
         <f aca="false">IF(  $B39&lt;$B$1, -1, 1 )</f>
@@ -8484,8 +8484,8 @@
         <v>0.302734375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D40*B40/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.862734375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B40 / ( $B$4 + $B$5 )   )</f>
+        <v>4.257265625</v>
       </c>
       <c r="D40" s="1" t="n">
         <f aca="false">IF(  $B40&lt;$B$1, -1, 1 )</f>
@@ -8501,8 +8501,8 @@
         <v>0.3125</v>
       </c>
       <c r="C41" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D41*B41/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.8725</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B41 / ( $B$4 + $B$5 )   )</f>
+        <v>4.2475</v>
       </c>
       <c r="D41" s="1" t="n">
         <f aca="false">IF(  $B41&lt;$B$1, -1, 1 )</f>
@@ -8518,8 +8518,8 @@
         <v>0.322265625</v>
       </c>
       <c r="C42" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D42*B42/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.882265625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B42 / ( $B$4 + $B$5 )   )</f>
+        <v>4.237734375</v>
       </c>
       <c r="D42" s="1" t="n">
         <f aca="false">IF(  $B42&lt;$B$1, -1, 1 )</f>
@@ -8535,8 +8535,8 @@
         <v>0.33203125</v>
       </c>
       <c r="C43" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D43*B43/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.89203125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B43 / ( $B$4 + $B$5 )   )</f>
+        <v>4.22796875</v>
       </c>
       <c r="D43" s="1" t="n">
         <f aca="false">IF(  $B43&lt;$B$1, -1, 1 )</f>
@@ -8552,8 +8552,8 @@
         <v>0.341796875</v>
       </c>
       <c r="C44" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D44*B44/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.901796875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B44 / ( $B$4 + $B$5 )   )</f>
+        <v>4.218203125</v>
       </c>
       <c r="D44" s="1" t="n">
         <f aca="false">IF(  $B44&lt;$B$1, -1, 1 )</f>
@@ -8569,8 +8569,8 @@
         <v>0.3515625</v>
       </c>
       <c r="C45" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D45*B45/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.9115625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B45 / ( $B$4 + $B$5 )   )</f>
+        <v>4.2084375</v>
       </c>
       <c r="D45" s="1" t="n">
         <f aca="false">IF(  $B45&lt;$B$1, -1, 1 )</f>
@@ -8586,8 +8586,8 @@
         <v>0.361328125</v>
       </c>
       <c r="C46" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D46*B46/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.921328125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B46 / ( $B$4 + $B$5 )   )</f>
+        <v>4.198671875</v>
       </c>
       <c r="D46" s="1" t="n">
         <f aca="false">IF(  $B46&lt;$B$1, -1, 1 )</f>
@@ -8603,8 +8603,8 @@
         <v>0.37109375</v>
       </c>
       <c r="C47" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D47*B47/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.93109375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B47 / ( $B$4 + $B$5 )   )</f>
+        <v>4.18890625</v>
       </c>
       <c r="D47" s="1" t="n">
         <f aca="false">IF(  $B47&lt;$B$1, -1, 1 )</f>
@@ -8620,8 +8620,8 @@
         <v>0.380859375</v>
       </c>
       <c r="C48" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D48*B48/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.940859375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B48 / ( $B$4 + $B$5 )   )</f>
+        <v>4.179140625</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">IF(  $B48&lt;$B$1, -1, 1 )</f>
@@ -8637,8 +8637,8 @@
         <v>0.390625</v>
       </c>
       <c r="C49" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D49*B49/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.950625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B49 / ( $B$4 + $B$5 )   )</f>
+        <v>4.169375</v>
       </c>
       <c r="D49" s="1" t="n">
         <f aca="false">IF(  $B49&lt;$B$1, -1, 1 )</f>
@@ -8654,8 +8654,8 @@
         <v>0.400390625</v>
       </c>
       <c r="C50" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D50*B50/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.960390625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B50 / ( $B$4 + $B$5 )   )</f>
+        <v>4.159609375</v>
       </c>
       <c r="D50" s="1" t="n">
         <f aca="false">IF(  $B50&lt;$B$1, -1, 1 )</f>
@@ -8671,8 +8671,8 @@
         <v>0.41015625</v>
       </c>
       <c r="C51" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D51*B51/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.97015625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B51 / ( $B$4 + $B$5 )   )</f>
+        <v>4.14984375</v>
       </c>
       <c r="D51" s="1" t="n">
         <f aca="false">IF(  $B51&lt;$B$1, -1, 1 )</f>
@@ -8688,8 +8688,8 @@
         <v>0.419921875</v>
       </c>
       <c r="C52" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D52*B52/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.979921875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B52 / ( $B$4 + $B$5 )   )</f>
+        <v>4.140078125</v>
       </c>
       <c r="D52" s="1" t="n">
         <f aca="false">IF(  $B52&lt;$B$1, -1, 1 )</f>
@@ -8705,8 +8705,8 @@
         <v>0.4296875</v>
       </c>
       <c r="C53" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D53*B53/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.9896875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B53 / ( $B$4 + $B$5 )   )</f>
+        <v>4.1303125</v>
       </c>
       <c r="D53" s="1" t="n">
         <f aca="false">IF(  $B53&lt;$B$1, -1, 1 )</f>
@@ -8722,8 +8722,8 @@
         <v>0.439453125</v>
       </c>
       <c r="C54" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D54*B54/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>4.999453125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B54 / ( $B$4 + $B$5 )   )</f>
+        <v>4.120546875</v>
       </c>
       <c r="D54" s="1" t="n">
         <f aca="false">IF(  $B54&lt;$B$1, -1, 1 )</f>
@@ -8739,8 +8739,8 @@
         <v>0.44921875</v>
       </c>
       <c r="C55" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D55*B55/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.00921875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B55 / ( $B$4 + $B$5 )   )</f>
+        <v>4.11078125</v>
       </c>
       <c r="D55" s="1" t="n">
         <f aca="false">IF(  $B55&lt;$B$1, -1, 1 )</f>
@@ -8756,8 +8756,8 @@
         <v>0.458984375</v>
       </c>
       <c r="C56" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D56*B56/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.018984375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B56 / ( $B$4 + $B$5 )   )</f>
+        <v>4.101015625</v>
       </c>
       <c r="D56" s="1" t="n">
         <f aca="false">IF(  $B56&lt;$B$1, -1, 1 )</f>
@@ -8773,8 +8773,8 @@
         <v>0.46875</v>
       </c>
       <c r="C57" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D57*B57/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.02875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B57 / ( $B$4 + $B$5 )   )</f>
+        <v>4.09125</v>
       </c>
       <c r="D57" s="1" t="n">
         <f aca="false">IF(  $B57&lt;$B$1, -1, 1 )</f>
@@ -8790,8 +8790,8 @@
         <v>0.478515625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D58*B58/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.038515625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B58 / ( $B$4 + $B$5 )   )</f>
+        <v>4.081484375</v>
       </c>
       <c r="D58" s="1" t="n">
         <f aca="false">IF(  $B58&lt;$B$1, -1, 1 )</f>
@@ -8807,8 +8807,8 @@
         <v>0.48828125</v>
       </c>
       <c r="C59" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D59*B59/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.04828125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B59 / ( $B$4 + $B$5 )   )</f>
+        <v>4.07171875</v>
       </c>
       <c r="D59" s="1" t="n">
         <f aca="false">IF(  $B59&lt;$B$1, -1, 1 )</f>
@@ -8824,8 +8824,8 @@
         <v>0.498046875</v>
       </c>
       <c r="C60" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D60*B60/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.058046875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B60 / ( $B$4 + $B$5 )   )</f>
+        <v>4.061953125</v>
       </c>
       <c r="D60" s="1" t="n">
         <f aca="false">IF(  $B60&lt;$B$1, -1, 1 )</f>
@@ -8841,8 +8841,8 @@
         <v>0.5078125</v>
       </c>
       <c r="C61" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D61*B61/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.0678125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B61 / ( $B$4 + $B$5 )   )</f>
+        <v>4.0521875</v>
       </c>
       <c r="D61" s="1" t="n">
         <f aca="false">IF(  $B61&lt;$B$1, -1, 1 )</f>
@@ -8858,8 +8858,8 @@
         <v>0.517578125</v>
       </c>
       <c r="C62" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D62*B62/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.077578125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B62 / ( $B$4 + $B$5 )   )</f>
+        <v>4.042421875</v>
       </c>
       <c r="D62" s="1" t="n">
         <f aca="false">IF(  $B62&lt;$B$1, -1, 1 )</f>
@@ -8875,8 +8875,8 @@
         <v>0.52734375</v>
       </c>
       <c r="C63" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D63*B63/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.08734375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B63 / ( $B$4 + $B$5 )   )</f>
+        <v>4.03265625</v>
       </c>
       <c r="D63" s="1" t="n">
         <f aca="false">IF(  $B63&lt;$B$1, -1, 1 )</f>
@@ -8892,8 +8892,8 @@
         <v>0.537109375</v>
       </c>
       <c r="C64" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D64*B64/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.097109375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B64 / ( $B$4 + $B$5 )   )</f>
+        <v>4.022890625</v>
       </c>
       <c r="D64" s="1" t="n">
         <f aca="false">IF(  $B64&lt;$B$1, -1, 1 )</f>
@@ -8909,8 +8909,8 @@
         <v>0.546875</v>
       </c>
       <c r="C65" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D65*B65/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.106875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B65 / ( $B$4 + $B$5 )   )</f>
+        <v>4.013125</v>
       </c>
       <c r="D65" s="1" t="n">
         <f aca="false">IF(  $B65&lt;$B$1, -1, 1 )</f>
@@ -8926,8 +8926,8 @@
         <v>0.556640625</v>
       </c>
       <c r="C66" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D66*B66/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.116640625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B66 / ( $B$4 + $B$5 )   )</f>
+        <v>4.003359375</v>
       </c>
       <c r="D66" s="1" t="n">
         <f aca="false">IF(  $B66&lt;$B$1, -1, 1 )</f>
@@ -8943,8 +8943,8 @@
         <v>0.56640625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D67*B67/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.12640625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B67 / ( $B$4 + $B$5 )   )</f>
+        <v>3.99359375</v>
       </c>
       <c r="D67" s="1" t="n">
         <f aca="false">IF(  $B67&lt;$B$1, -1, 1 )</f>
@@ -8960,8 +8960,8 @@
         <v>0.576171875</v>
       </c>
       <c r="C68" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D68*B68/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.136171875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B68 / ( $B$4 + $B$5 )   )</f>
+        <v>3.983828125</v>
       </c>
       <c r="D68" s="1" t="n">
         <f aca="false">IF(  $B68&lt;$B$1, -1, 1 )</f>
@@ -8977,8 +8977,8 @@
         <v>0.5859375</v>
       </c>
       <c r="C69" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D69*B69/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.1459375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B69 / ( $B$4 + $B$5 )   )</f>
+        <v>3.9740625</v>
       </c>
       <c r="D69" s="1" t="n">
         <f aca="false">IF(  $B69&lt;$B$1, -1, 1 )</f>
@@ -8994,8 +8994,8 @@
         <v>0.595703125</v>
       </c>
       <c r="C70" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D70*B70/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.155703125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B70 / ( $B$4 + $B$5 )   )</f>
+        <v>3.964296875</v>
       </c>
       <c r="D70" s="1" t="n">
         <f aca="false">IF(  $B70&lt;$B$1, -1, 1 )</f>
@@ -9011,8 +9011,8 @@
         <v>0.60546875</v>
       </c>
       <c r="C71" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D71*B71/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.16546875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B71 / ( $B$4 + $B$5 )   )</f>
+        <v>3.95453125</v>
       </c>
       <c r="D71" s="1" t="n">
         <f aca="false">IF(  $B71&lt;$B$1, -1, 1 )</f>
@@ -9028,8 +9028,8 @@
         <v>0.615234375</v>
       </c>
       <c r="C72" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D72*B72/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.175234375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B72 / ( $B$4 + $B$5 )   )</f>
+        <v>3.944765625</v>
       </c>
       <c r="D72" s="1" t="n">
         <f aca="false">IF(  $B72&lt;$B$1, -1, 1 )</f>
@@ -9045,8 +9045,8 @@
         <v>0.625</v>
       </c>
       <c r="C73" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D73*B73/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.185</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B73 / ( $B$4 + $B$5 )   )</f>
+        <v>3.935</v>
       </c>
       <c r="D73" s="1" t="n">
         <f aca="false">IF(  $B73&lt;$B$1, -1, 1 )</f>
@@ -9062,8 +9062,8 @@
         <v>0.634765625</v>
       </c>
       <c r="C74" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D74*B74/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.194765625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B74 / ( $B$4 + $B$5 )   )</f>
+        <v>3.925234375</v>
       </c>
       <c r="D74" s="1" t="n">
         <f aca="false">IF(  $B74&lt;$B$1, -1, 1 )</f>
@@ -9079,8 +9079,8 @@
         <v>0.64453125</v>
       </c>
       <c r="C75" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D75*B75/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.20453125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B75 / ( $B$4 + $B$5 )   )</f>
+        <v>3.91546875</v>
       </c>
       <c r="D75" s="1" t="n">
         <f aca="false">IF(  $B75&lt;$B$1, -1, 1 )</f>
@@ -9096,8 +9096,8 @@
         <v>0.654296875</v>
       </c>
       <c r="C76" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D76*B76/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.214296875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B76 / ( $B$4 + $B$5 )   )</f>
+        <v>3.905703125</v>
       </c>
       <c r="D76" s="1" t="n">
         <f aca="false">IF(  $B76&lt;$B$1, -1, 1 )</f>
@@ -9113,8 +9113,8 @@
         <v>0.6640625</v>
       </c>
       <c r="C77" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D77*B77/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.2240625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B77 / ( $B$4 + $B$5 )   )</f>
+        <v>3.8959375</v>
       </c>
       <c r="D77" s="1" t="n">
         <f aca="false">IF(  $B77&lt;$B$1, -1, 1 )</f>
@@ -9130,8 +9130,8 @@
         <v>0.673828125</v>
       </c>
       <c r="C78" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D78*B78/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.233828125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B78 / ( $B$4 + $B$5 )   )</f>
+        <v>3.886171875</v>
       </c>
       <c r="D78" s="1" t="n">
         <f aca="false">IF(  $B78&lt;$B$1, -1, 1 )</f>
@@ -9147,8 +9147,8 @@
         <v>0.68359375</v>
       </c>
       <c r="C79" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D79*B79/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.24359375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B79 / ( $B$4 + $B$5 )   )</f>
+        <v>3.87640625</v>
       </c>
       <c r="D79" s="1" t="n">
         <f aca="false">IF(  $B79&lt;$B$1, -1, 1 )</f>
@@ -9164,8 +9164,8 @@
         <v>0.693359375</v>
       </c>
       <c r="C80" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D80*B80/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.253359375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B80 / ( $B$4 + $B$5 )   )</f>
+        <v>3.866640625</v>
       </c>
       <c r="D80" s="1" t="n">
         <f aca="false">IF(  $B80&lt;$B$1, -1, 1 )</f>
@@ -9181,8 +9181,8 @@
         <v>0.703125</v>
       </c>
       <c r="C81" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D81*B81/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.263125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B81 / ( $B$4 + $B$5 )   )</f>
+        <v>3.856875</v>
       </c>
       <c r="D81" s="1" t="n">
         <f aca="false">IF(  $B81&lt;$B$1, -1, 1 )</f>
@@ -9198,8 +9198,8 @@
         <v>0.712890625</v>
       </c>
       <c r="C82" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D82*B82/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.272890625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B82 / ( $B$4 + $B$5 )   )</f>
+        <v>3.847109375</v>
       </c>
       <c r="D82" s="1" t="n">
         <f aca="false">IF(  $B82&lt;$B$1, -1, 1 )</f>
@@ -9215,8 +9215,8 @@
         <v>0.72265625</v>
       </c>
       <c r="C83" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D83*B83/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.28265625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B83 / ( $B$4 + $B$5 )   )</f>
+        <v>3.83734375</v>
       </c>
       <c r="D83" s="1" t="n">
         <f aca="false">IF(  $B83&lt;$B$1, -1, 1 )</f>
@@ -9232,8 +9232,8 @@
         <v>0.732421875</v>
       </c>
       <c r="C84" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D84*B84/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.292421875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B84 / ( $B$4 + $B$5 )   )</f>
+        <v>3.827578125</v>
       </c>
       <c r="D84" s="1" t="n">
         <f aca="false">IF(  $B84&lt;$B$1, -1, 1 )</f>
@@ -9249,8 +9249,8 @@
         <v>0.7421875</v>
       </c>
       <c r="C85" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D85*B85/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.3021875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B85 / ( $B$4 + $B$5 )   )</f>
+        <v>3.8178125</v>
       </c>
       <c r="D85" s="1" t="n">
         <f aca="false">IF(  $B85&lt;$B$1, -1, 1 )</f>
@@ -9266,8 +9266,8 @@
         <v>0.751953125</v>
       </c>
       <c r="C86" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D86*B86/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.311953125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B86 / ( $B$4 + $B$5 )   )</f>
+        <v>3.808046875</v>
       </c>
       <c r="D86" s="1" t="n">
         <f aca="false">IF(  $B86&lt;$B$1, -1, 1 )</f>
@@ -9283,8 +9283,8 @@
         <v>0.76171875</v>
       </c>
       <c r="C87" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D87*B87/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.32171875</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B87 / ( $B$4 + $B$5 )   )</f>
+        <v>3.79828125</v>
       </c>
       <c r="D87" s="1" t="n">
         <f aca="false">IF(  $B87&lt;$B$1, -1, 1 )</f>
@@ -9300,8 +9300,8 @@
         <v>0.771484375</v>
       </c>
       <c r="C88" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D88*B88/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.331484375</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B88 / ( $B$4 + $B$5 )   )</f>
+        <v>3.788515625</v>
       </c>
       <c r="D88" s="1" t="n">
         <f aca="false">IF(  $B88&lt;$B$1, -1, 1 )</f>
@@ -9317,8 +9317,8 @@
         <v>0.78125</v>
       </c>
       <c r="C89" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D89*B89/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.34125</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B89 / ( $B$4 + $B$5 )   )</f>
+        <v>3.77875</v>
       </c>
       <c r="D89" s="1" t="n">
         <f aca="false">IF(  $B89&lt;$B$1, -1, 1 )</f>
@@ -9334,8 +9334,8 @@
         <v>0.791015625</v>
       </c>
       <c r="C90" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D90*B90/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
-        <v>5.351015625</v>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B90 / ( $B$4 + $B$5 )   )</f>
+        <v>3.768984375</v>
       </c>
       <c r="D90" s="1" t="n">
         <f aca="false">IF(  $B90&lt;$B$1, -1, 1 )</f>
@@ -9351,7 +9351,7 @@
         <v>0.80078125</v>
       </c>
       <c r="C91" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D91*B91/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B91 / ( $B$4 + $B$5 )   )</f>
         <v>3.75921875</v>
       </c>
       <c r="D91" s="1" t="n">
@@ -9368,7 +9368,7 @@
         <v>0.810546875</v>
       </c>
       <c r="C92" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D92*B92/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B92 / ( $B$4 + $B$5 )   )</f>
         <v>3.749453125</v>
       </c>
       <c r="D92" s="1" t="n">
@@ -9385,7 +9385,7 @@
         <v>0.8203125</v>
       </c>
       <c r="C93" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D93*B93/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B93 / ( $B$4 + $B$5 )   )</f>
         <v>3.7396875</v>
       </c>
       <c r="D93" s="1" t="n">
@@ -9402,7 +9402,7 @@
         <v>0.830078125</v>
       </c>
       <c r="C94" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D94*B94/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B94 / ( $B$4 + $B$5 )   )</f>
         <v>3.729921875</v>
       </c>
       <c r="D94" s="1" t="n">
@@ -9419,7 +9419,7 @@
         <v>0.83984375</v>
       </c>
       <c r="C95" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D95*B95/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B95 / ( $B$4 + $B$5 )   )</f>
         <v>3.72015625</v>
       </c>
       <c r="D95" s="1" t="n">
@@ -9436,7 +9436,7 @@
         <v>0.849609375</v>
       </c>
       <c r="C96" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D96*B96/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B96 / ( $B$4 + $B$5 )   )</f>
         <v>3.710390625</v>
       </c>
       <c r="D96" s="1" t="n">
@@ -9453,7 +9453,7 @@
         <v>0.859375</v>
       </c>
       <c r="C97" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D97*B97/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B97 / ( $B$4 + $B$5 )   )</f>
         <v>3.700625</v>
       </c>
       <c r="D97" s="1" t="n">
@@ -9470,7 +9470,7 @@
         <v>0.869140625</v>
       </c>
       <c r="C98" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D98*B98/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B98 / ( $B$4 + $B$5 )   )</f>
         <v>3.690859375</v>
       </c>
       <c r="D98" s="1" t="n">
@@ -9487,7 +9487,7 @@
         <v>0.87890625</v>
       </c>
       <c r="C99" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D99*B99/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B99 / ( $B$4 + $B$5 )   )</f>
         <v>3.68109375</v>
       </c>
       <c r="D99" s="1" t="n">
@@ -9504,7 +9504,7 @@
         <v>0.888671875</v>
       </c>
       <c r="C100" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D100*B100/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B100 / ( $B$4 + $B$5 )   )</f>
         <v>3.671328125</v>
       </c>
       <c r="D100" s="1" t="n">
@@ -9521,7 +9521,7 @@
         <v>0.8984375</v>
       </c>
       <c r="C101" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D101*B101/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B101 / ( $B$4 + $B$5 )   )</f>
         <v>3.6615625</v>
       </c>
       <c r="D101" s="1" t="n">
@@ -9538,7 +9538,7 @@
         <v>0.908203125</v>
       </c>
       <c r="C102" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D102*B102/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B102 / ( $B$4 + $B$5 )   )</f>
         <v>3.651796875</v>
       </c>
       <c r="D102" s="1" t="n">
@@ -9555,7 +9555,7 @@
         <v>0.91796875</v>
       </c>
       <c r="C103" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D103*B103/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B103 / ( $B$4 + $B$5 )   )</f>
         <v>3.64203125</v>
       </c>
       <c r="D103" s="1" t="n">
@@ -9572,7 +9572,7 @@
         <v>0.927734375</v>
       </c>
       <c r="C104" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D104*B104/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B104 / ( $B$4 + $B$5 )   )</f>
         <v>3.632265625</v>
       </c>
       <c r="D104" s="1" t="n">
@@ -9589,7 +9589,7 @@
         <v>0.9375</v>
       </c>
       <c r="C105" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D105*B105/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B105 / ( $B$4 + $B$5 )   )</f>
         <v>3.6225</v>
       </c>
       <c r="D105" s="1" t="n">
@@ -9606,7 +9606,7 @@
         <v>0.947265625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D106*B106/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B106 / ( $B$4 + $B$5 )   )</f>
         <v>3.612734375</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -9623,7 +9623,7 @@
         <v>0.95703125</v>
       </c>
       <c r="C107" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D107*B107/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B107 / ( $B$4 + $B$5 )   )</f>
         <v>3.60296875</v>
       </c>
       <c r="D107" s="1" t="n">
@@ -9640,7 +9640,7 @@
         <v>0.966796875</v>
       </c>
       <c r="C108" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D108*B108/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B108 / ( $B$4 + $B$5 )   )</f>
         <v>3.593203125</v>
       </c>
       <c r="D108" s="1" t="n">
@@ -9657,7 +9657,7 @@
         <v>0.9765625</v>
       </c>
       <c r="C109" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D109*B109/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B109 / ( $B$4 + $B$5 )   )</f>
         <v>3.5834375</v>
       </c>
       <c r="D109" s="1" t="n">
@@ -9674,7 +9674,7 @@
         <v>0.986328125</v>
       </c>
       <c r="C110" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D110*B110/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B110 / ( $B$4 + $B$5 )   )</f>
         <v>3.573671875</v>
       </c>
       <c r="D110" s="1" t="n">
@@ -9691,7 +9691,7 @@
         <v>0.99609375</v>
       </c>
       <c r="C111" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D111*B111/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B111 / ( $B$4 + $B$5 )   )</f>
         <v>3.56390625</v>
       </c>
       <c r="D111" s="1" t="n">
@@ -9708,7 +9708,7 @@
         <v>1.005859375</v>
       </c>
       <c r="C112" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D112*B112/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B112 / ( $B$4 + $B$5 )   )</f>
         <v>3.554140625</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -9725,7 +9725,7 @@
         <v>1.015625</v>
       </c>
       <c r="C113" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D113*B113/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B113 / ( $B$4 + $B$5 )   )</f>
         <v>3.544375</v>
       </c>
       <c r="D113" s="1" t="n">
@@ -9742,7 +9742,7 @@
         <v>1.025390625</v>
       </c>
       <c r="C114" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D114*B114/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B114 / ( $B$4 + $B$5 )   )</f>
         <v>3.534609375</v>
       </c>
       <c r="D114" s="1" t="n">
@@ -9759,7 +9759,7 @@
         <v>1.03515625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D115*B115/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B115 / ( $B$4 + $B$5 )   )</f>
         <v>3.52484375</v>
       </c>
       <c r="D115" s="1" t="n">
@@ -9776,7 +9776,7 @@
         <v>1.044921875</v>
       </c>
       <c r="C116" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D116*B116/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B116 / ( $B$4 + $B$5 )   )</f>
         <v>3.515078125</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -9793,7 +9793,7 @@
         <v>1.0546875</v>
       </c>
       <c r="C117" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D117*B117/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B117 / ( $B$4 + $B$5 )   )</f>
         <v>3.5053125</v>
       </c>
       <c r="D117" s="1" t="n">
@@ -9810,7 +9810,7 @@
         <v>1.064453125</v>
       </c>
       <c r="C118" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D118*B118/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B118 / ( $B$4 + $B$5 )   )</f>
         <v>3.495546875</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -9827,7 +9827,7 @@
         <v>1.07421875</v>
       </c>
       <c r="C119" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D119*B119/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B119 / ( $B$4 + $B$5 )   )</f>
         <v>3.48578125</v>
       </c>
       <c r="D119" s="1" t="n">
@@ -9844,7 +9844,7 @@
         <v>1.083984375</v>
       </c>
       <c r="C120" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D120*B120/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B120 / ( $B$4 + $B$5 )   )</f>
         <v>3.476015625</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -9861,7 +9861,7 @@
         <v>1.09375</v>
       </c>
       <c r="C121" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D121*B121/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B121 / ( $B$4 + $B$5 )   )</f>
         <v>3.46625</v>
       </c>
       <c r="D121" s="1" t="n">
@@ -9878,7 +9878,7 @@
         <v>1.103515625</v>
       </c>
       <c r="C122" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D122*B122/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B122 / ( $B$4 + $B$5 )   )</f>
         <v>3.456484375</v>
       </c>
       <c r="D122" s="1" t="n">
@@ -9895,7 +9895,7 @@
         <v>1.11328125</v>
       </c>
       <c r="C123" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D123*B123/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B123 / ( $B$4 + $B$5 )   )</f>
         <v>3.44671875</v>
       </c>
       <c r="D123" s="1" t="n">
@@ -9912,7 +9912,7 @@
         <v>1.123046875</v>
       </c>
       <c r="C124" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D124*B124/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B124 / ( $B$4 + $B$5 )   )</f>
         <v>3.436953125</v>
       </c>
       <c r="D124" s="1" t="n">
@@ -9929,7 +9929,7 @@
         <v>1.1328125</v>
       </c>
       <c r="C125" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D125*B125/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B125 / ( $B$4 + $B$5 )   )</f>
         <v>3.4271875</v>
       </c>
       <c r="D125" s="1" t="n">
@@ -9946,7 +9946,7 @@
         <v>1.142578125</v>
       </c>
       <c r="C126" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D126*B126/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B126 / ( $B$4 + $B$5 )   )</f>
         <v>3.417421875</v>
       </c>
       <c r="D126" s="1" t="n">
@@ -9963,7 +9963,7 @@
         <v>1.15234375</v>
       </c>
       <c r="C127" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D127*B127/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B127 / ( $B$4 + $B$5 )   )</f>
         <v>3.40765625</v>
       </c>
       <c r="D127" s="1" t="n">
@@ -9980,7 +9980,7 @@
         <v>1.162109375</v>
       </c>
       <c r="C128" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D128*B128/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B128 / ( $B$4 + $B$5 )   )</f>
         <v>3.397890625</v>
       </c>
       <c r="D128" s="1" t="n">
@@ -9997,7 +9997,7 @@
         <v>1.171875</v>
       </c>
       <c r="C129" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D129*B129/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B129 / ( $B$4 + $B$5 )   )</f>
         <v>3.388125</v>
       </c>
       <c r="D129" s="1" t="n">
@@ -10014,7 +10014,7 @@
         <v>1.181640625</v>
       </c>
       <c r="C130" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D130*B130/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B130 / ( $B$4 + $B$5 )   )</f>
         <v>3.378359375</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -10031,7 +10031,7 @@
         <v>1.19140625</v>
       </c>
       <c r="C131" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D131*B131/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B131 / ( $B$4 + $B$5 )   )</f>
         <v>3.36859375</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -10048,7 +10048,7 @@
         <v>1.201171875</v>
       </c>
       <c r="C132" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D132*B132/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B132 / ( $B$4 + $B$5 )   )</f>
         <v>3.358828125</v>
       </c>
       <c r="D132" s="1" t="n">
@@ -10065,7 +10065,7 @@
         <v>1.2109375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D133*B133/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B133 / ( $B$4 + $B$5 )   )</f>
         <v>3.3490625</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -10082,7 +10082,7 @@
         <v>1.220703125</v>
       </c>
       <c r="C134" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D134*B134/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B134 / ( $B$4 + $B$5 )   )</f>
         <v>3.339296875</v>
       </c>
       <c r="D134" s="1" t="n">
@@ -10099,7 +10099,7 @@
         <v>1.23046875</v>
       </c>
       <c r="C135" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D135*B135/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B135 / ( $B$4 + $B$5 )   )</f>
         <v>3.32953125</v>
       </c>
       <c r="D135" s="1" t="n">
@@ -10116,7 +10116,7 @@
         <v>1.240234375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D136*B136/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B136 / ( $B$4 + $B$5 )   )</f>
         <v>3.319765625</v>
       </c>
       <c r="D136" s="1" t="n">
@@ -10133,7 +10133,7 @@
         <v>1.25</v>
       </c>
       <c r="C137" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D137*B137/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B137 / ( $B$4 + $B$5 )   )</f>
         <v>3.31</v>
       </c>
       <c r="D137" s="1" t="n">
@@ -10150,7 +10150,7 @@
         <v>1.259765625</v>
       </c>
       <c r="C138" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D138*B138/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B138 / ( $B$4 + $B$5 )   )</f>
         <v>3.300234375</v>
       </c>
       <c r="D138" s="1" t="n">
@@ -10167,7 +10167,7 @@
         <v>1.26953125</v>
       </c>
       <c r="C139" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D139*B139/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B139 / ( $B$4 + $B$5 )   )</f>
         <v>3.29046875</v>
       </c>
       <c r="D139" s="1" t="n">
@@ -10184,7 +10184,7 @@
         <v>1.279296875</v>
       </c>
       <c r="C140" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D140*B140/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B140 / ( $B$4 + $B$5 )   )</f>
         <v>3.280703125</v>
       </c>
       <c r="D140" s="1" t="n">
@@ -10201,7 +10201,7 @@
         <v>1.2890625</v>
       </c>
       <c r="C141" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D141*B141/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B141 / ( $B$4 + $B$5 )   )</f>
         <v>3.2709375</v>
       </c>
       <c r="D141" s="1" t="n">
@@ -10218,7 +10218,7 @@
         <v>1.298828125</v>
       </c>
       <c r="C142" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D142*B142/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B142 / ( $B$4 + $B$5 )   )</f>
         <v>3.261171875</v>
       </c>
       <c r="D142" s="1" t="n">
@@ -10235,7 +10235,7 @@
         <v>1.30859375</v>
       </c>
       <c r="C143" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D143*B143/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B143 / ( $B$4 + $B$5 )   )</f>
         <v>3.25140625</v>
       </c>
       <c r="D143" s="1" t="n">
@@ -10252,7 +10252,7 @@
         <v>1.318359375</v>
       </c>
       <c r="C144" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D144*B144/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B144 / ( $B$4 + $B$5 )   )</f>
         <v>3.241640625</v>
       </c>
       <c r="D144" s="1" t="n">
@@ -10269,7 +10269,7 @@
         <v>1.328125</v>
       </c>
       <c r="C145" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D145*B145/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B145 / ( $B$4 + $B$5 )   )</f>
         <v>3.231875</v>
       </c>
       <c r="D145" s="1" t="n">
@@ -10286,7 +10286,7 @@
         <v>1.337890625</v>
       </c>
       <c r="C146" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D146*B146/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B146 / ( $B$4 + $B$5 )   )</f>
         <v>3.222109375</v>
       </c>
       <c r="D146" s="1" t="n">
@@ -10303,7 +10303,7 @@
         <v>1.34765625</v>
       </c>
       <c r="C147" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D147*B147/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B147 / ( $B$4 + $B$5 )   )</f>
         <v>3.21234375</v>
       </c>
       <c r="D147" s="1" t="n">
@@ -10320,7 +10320,7 @@
         <v>1.357421875</v>
       </c>
       <c r="C148" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D148*B148/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B148 / ( $B$4 + $B$5 )   )</f>
         <v>3.202578125</v>
       </c>
       <c r="D148" s="1" t="n">
@@ -10337,7 +10337,7 @@
         <v>1.3671875</v>
       </c>
       <c r="C149" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D149*B149/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B149 / ( $B$4 + $B$5 )   )</f>
         <v>3.1928125</v>
       </c>
       <c r="D149" s="1" t="n">
@@ -10354,7 +10354,7 @@
         <v>1.376953125</v>
       </c>
       <c r="C150" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D150*B150/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B150 / ( $B$4 + $B$5 )   )</f>
         <v>3.183046875</v>
       </c>
       <c r="D150" s="1" t="n">
@@ -10371,7 +10371,7 @@
         <v>1.38671875</v>
       </c>
       <c r="C151" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D151*B151/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B151 / ( $B$4 + $B$5 )   )</f>
         <v>3.17328125</v>
       </c>
       <c r="D151" s="1" t="n">
@@ -10388,7 +10388,7 @@
         <v>1.396484375</v>
       </c>
       <c r="C152" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D152*B152/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B152 / ( $B$4 + $B$5 )   )</f>
         <v>3.163515625</v>
       </c>
       <c r="D152" s="1" t="n">
@@ -10405,7 +10405,7 @@
         <v>1.40625</v>
       </c>
       <c r="C153" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D153*B153/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B153 / ( $B$4 + $B$5 )   )</f>
         <v>3.15375</v>
       </c>
       <c r="D153" s="1" t="n">
@@ -10422,7 +10422,7 @@
         <v>1.416015625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D154*B154/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B154 / ( $B$4 + $B$5 )   )</f>
         <v>3.143984375</v>
       </c>
       <c r="D154" s="1" t="n">
@@ -10439,7 +10439,7 @@
         <v>1.42578125</v>
       </c>
       <c r="C155" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D155*B155/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B155 / ( $B$4 + $B$5 )   )</f>
         <v>3.13421875</v>
       </c>
       <c r="D155" s="1" t="n">
@@ -10456,7 +10456,7 @@
         <v>1.435546875</v>
       </c>
       <c r="C156" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D156*B156/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B156 / ( $B$4 + $B$5 )   )</f>
         <v>3.124453125</v>
       </c>
       <c r="D156" s="1" t="n">
@@ -10473,7 +10473,7 @@
         <v>1.4453125</v>
       </c>
       <c r="C157" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D157*B157/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B157 / ( $B$4 + $B$5 )   )</f>
         <v>3.1146875</v>
       </c>
       <c r="D157" s="1" t="n">
@@ -10490,7 +10490,7 @@
         <v>1.455078125</v>
       </c>
       <c r="C158" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D158*B158/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B158 / ( $B$4 + $B$5 )   )</f>
         <v>3.104921875</v>
       </c>
       <c r="D158" s="1" t="n">
@@ -10507,7 +10507,7 @@
         <v>1.46484375</v>
       </c>
       <c r="C159" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D159*B159/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B159 / ( $B$4 + $B$5 )   )</f>
         <v>3.09515625</v>
       </c>
       <c r="D159" s="1" t="n">
@@ -10524,7 +10524,7 @@
         <v>1.474609375</v>
       </c>
       <c r="C160" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D160*B160/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B160 / ( $B$4 + $B$5 )   )</f>
         <v>3.085390625</v>
       </c>
       <c r="D160" s="1" t="n">
@@ -10541,7 +10541,7 @@
         <v>1.484375</v>
       </c>
       <c r="C161" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D161*B161/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B161 / ( $B$4 + $B$5 )   )</f>
         <v>3.075625</v>
       </c>
       <c r="D161" s="1" t="n">
@@ -10558,7 +10558,7 @@
         <v>1.494140625</v>
       </c>
       <c r="C162" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D162*B162/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B162 / ( $B$4 + $B$5 )   )</f>
         <v>3.065859375</v>
       </c>
       <c r="D162" s="1" t="n">
@@ -10575,7 +10575,7 @@
         <v>1.50390625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D163*B163/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B163 / ( $B$4 + $B$5 )   )</f>
         <v>3.05609375</v>
       </c>
       <c r="D163" s="1" t="n">
@@ -10592,7 +10592,7 @@
         <v>1.513671875</v>
       </c>
       <c r="C164" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D164*B164/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B164 / ( $B$4 + $B$5 )   )</f>
         <v>3.046328125</v>
       </c>
       <c r="D164" s="1" t="n">
@@ -10609,7 +10609,7 @@
         <v>1.5234375</v>
       </c>
       <c r="C165" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D165*B165/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B165 / ( $B$4 + $B$5 )   )</f>
         <v>3.0365625</v>
       </c>
       <c r="D165" s="1" t="n">
@@ -10626,7 +10626,7 @@
         <v>1.533203125</v>
       </c>
       <c r="C166" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D166*B166/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B166 / ( $B$4 + $B$5 )   )</f>
         <v>3.026796875</v>
       </c>
       <c r="D166" s="1" t="n">
@@ -10643,7 +10643,7 @@
         <v>1.54296875</v>
       </c>
       <c r="C167" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D167*B167/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B167 / ( $B$4 + $B$5 )   )</f>
         <v>3.01703125</v>
       </c>
       <c r="D167" s="1" t="n">
@@ -10660,7 +10660,7 @@
         <v>1.552734375</v>
       </c>
       <c r="C168" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D168*B168/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B168 / ( $B$4 + $B$5 )   )</f>
         <v>3.007265625</v>
       </c>
       <c r="D168" s="1" t="n">
@@ -10677,7 +10677,7 @@
         <v>1.5625</v>
       </c>
       <c r="C169" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D169*B169/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B169 / ( $B$4 + $B$5 )   )</f>
         <v>2.9975</v>
       </c>
       <c r="D169" s="1" t="n">
@@ -10694,7 +10694,7 @@
         <v>1.572265625</v>
       </c>
       <c r="C170" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D170*B170/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B170 / ( $B$4 + $B$5 )   )</f>
         <v>2.987734375</v>
       </c>
       <c r="D170" s="1" t="n">
@@ -10711,7 +10711,7 @@
         <v>1.58203125</v>
       </c>
       <c r="C171" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D171*B171/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B171 / ( $B$4 + $B$5 )   )</f>
         <v>2.97796875</v>
       </c>
       <c r="D171" s="1" t="n">
@@ -10728,7 +10728,7 @@
         <v>1.591796875</v>
       </c>
       <c r="C172" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D172*B172/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B172 / ( $B$4 + $B$5 )   )</f>
         <v>2.968203125</v>
       </c>
       <c r="D172" s="1" t="n">
@@ -10745,7 +10745,7 @@
         <v>1.6015625</v>
       </c>
       <c r="C173" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D173*B173/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B173 / ( $B$4 + $B$5 )   )</f>
         <v>2.9584375</v>
       </c>
       <c r="D173" s="1" t="n">
@@ -10762,7 +10762,7 @@
         <v>1.611328125</v>
       </c>
       <c r="C174" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D174*B174/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B174 / ( $B$4 + $B$5 )   )</f>
         <v>2.948671875</v>
       </c>
       <c r="D174" s="1" t="n">
@@ -10779,7 +10779,7 @@
         <v>1.62109375</v>
       </c>
       <c r="C175" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D175*B175/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B175 / ( $B$4 + $B$5 )   )</f>
         <v>2.93890625</v>
       </c>
       <c r="D175" s="1" t="n">
@@ -10796,7 +10796,7 @@
         <v>1.630859375</v>
       </c>
       <c r="C176" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D176*B176/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B176 / ( $B$4 + $B$5 )   )</f>
         <v>2.929140625</v>
       </c>
       <c r="D176" s="1" t="n">
@@ -10813,7 +10813,7 @@
         <v>1.640625</v>
       </c>
       <c r="C177" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D177*B177/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B177 / ( $B$4 + $B$5 )   )</f>
         <v>2.919375</v>
       </c>
       <c r="D177" s="1" t="n">
@@ -10830,7 +10830,7 @@
         <v>1.650390625</v>
       </c>
       <c r="C178" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D178*B178/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B178 / ( $B$4 + $B$5 )   )</f>
         <v>2.909609375</v>
       </c>
       <c r="D178" s="1" t="n">
@@ -10847,7 +10847,7 @@
         <v>1.66015625</v>
       </c>
       <c r="C179" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D179*B179/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B179 / ( $B$4 + $B$5 )   )</f>
         <v>2.89984375</v>
       </c>
       <c r="D179" s="1" t="n">
@@ -10864,7 +10864,7 @@
         <v>1.669921875</v>
       </c>
       <c r="C180" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D180*B180/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B180 / ( $B$4 + $B$5 )   )</f>
         <v>2.890078125</v>
       </c>
       <c r="D180" s="1" t="n">
@@ -10881,7 +10881,7 @@
         <v>1.6796875</v>
       </c>
       <c r="C181" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D181*B181/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B181 / ( $B$4 + $B$5 )   )</f>
         <v>2.8803125</v>
       </c>
       <c r="D181" s="1" t="n">
@@ -10898,7 +10898,7 @@
         <v>1.689453125</v>
       </c>
       <c r="C182" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D182*B182/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B182 / ( $B$4 + $B$5 )   )</f>
         <v>2.870546875</v>
       </c>
       <c r="D182" s="1" t="n">
@@ -10915,7 +10915,7 @@
         <v>1.69921875</v>
       </c>
       <c r="C183" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D183*B183/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B183 / ( $B$4 + $B$5 )   )</f>
         <v>2.86078125</v>
       </c>
       <c r="D183" s="1" t="n">
@@ -10932,7 +10932,7 @@
         <v>1.708984375</v>
       </c>
       <c r="C184" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D184*B184/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B184 / ( $B$4 + $B$5 )   )</f>
         <v>2.851015625</v>
       </c>
       <c r="D184" s="1" t="n">
@@ -10949,7 +10949,7 @@
         <v>1.71875</v>
       </c>
       <c r="C185" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D185*B185/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B185 / ( $B$4 + $B$5 )   )</f>
         <v>2.84125</v>
       </c>
       <c r="D185" s="1" t="n">
@@ -10966,7 +10966,7 @@
         <v>1.728515625</v>
       </c>
       <c r="C186" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D186*B186/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B186 / ( $B$4 + $B$5 )   )</f>
         <v>2.831484375</v>
       </c>
       <c r="D186" s="1" t="n">
@@ -10983,7 +10983,7 @@
         <v>1.73828125</v>
       </c>
       <c r="C187" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D187*B187/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B187 / ( $B$4 + $B$5 )   )</f>
         <v>2.82171875</v>
       </c>
       <c r="D187" s="1" t="n">
@@ -11000,7 +11000,7 @@
         <v>1.748046875</v>
       </c>
       <c r="C188" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D188*B188/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B188 / ( $B$4 + $B$5 )   )</f>
         <v>2.811953125</v>
       </c>
       <c r="D188" s="1" t="n">
@@ -11017,7 +11017,7 @@
         <v>1.7578125</v>
       </c>
       <c r="C189" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D189*B189/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B189 / ( $B$4 + $B$5 )   )</f>
         <v>2.8021875</v>
       </c>
       <c r="D189" s="1" t="n">
@@ -11034,7 +11034,7 @@
         <v>1.767578125</v>
       </c>
       <c r="C190" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D190*B190/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B190 / ( $B$4 + $B$5 )   )</f>
         <v>2.792421875</v>
       </c>
       <c r="D190" s="1" t="n">
@@ -11051,7 +11051,7 @@
         <v>1.77734375</v>
       </c>
       <c r="C191" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D191*B191/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B191 / ( $B$4 + $B$5 )   )</f>
         <v>2.78265625</v>
       </c>
       <c r="D191" s="1" t="n">
@@ -11068,7 +11068,7 @@
         <v>1.787109375</v>
       </c>
       <c r="C192" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D192*B192/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B192 / ( $B$4 + $B$5 )   )</f>
         <v>2.772890625</v>
       </c>
       <c r="D192" s="1" t="n">
@@ -11085,7 +11085,7 @@
         <v>1.796875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D193*B193/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B193 / ( $B$4 + $B$5 )   )</f>
         <v>2.763125</v>
       </c>
       <c r="D193" s="1" t="n">
@@ -11102,7 +11102,7 @@
         <v>1.806640625</v>
       </c>
       <c r="C194" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D194*B194/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B194 / ( $B$4 + $B$5 )   )</f>
         <v>2.753359375</v>
       </c>
       <c r="D194" s="1" t="n">
@@ -11119,7 +11119,7 @@
         <v>1.81640625</v>
       </c>
       <c r="C195" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D195*B195/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B195 / ( $B$4 + $B$5 )   )</f>
         <v>2.74359375</v>
       </c>
       <c r="D195" s="1" t="n">
@@ -11136,7 +11136,7 @@
         <v>1.826171875</v>
       </c>
       <c r="C196" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D196*B196/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B196 / ( $B$4 + $B$5 )   )</f>
         <v>2.733828125</v>
       </c>
       <c r="D196" s="1" t="n">
@@ -11153,7 +11153,7 @@
         <v>1.8359375</v>
       </c>
       <c r="C197" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D197*B197/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B197 / ( $B$4 + $B$5 )   )</f>
         <v>2.7240625</v>
       </c>
       <c r="D197" s="1" t="n">
@@ -11170,7 +11170,7 @@
         <v>1.845703125</v>
       </c>
       <c r="C198" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D198*B198/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B198 / ( $B$4 + $B$5 )   )</f>
         <v>2.714296875</v>
       </c>
       <c r="D198" s="1" t="n">
@@ -11187,7 +11187,7 @@
         <v>1.85546875</v>
       </c>
       <c r="C199" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D199*B199/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B199 / ( $B$4 + $B$5 )   )</f>
         <v>2.70453125</v>
       </c>
       <c r="D199" s="1" t="n">
@@ -11204,7 +11204,7 @@
         <v>1.865234375</v>
       </c>
       <c r="C200" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D200*B200/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B200 / ( $B$4 + $B$5 )   )</f>
         <v>2.694765625</v>
       </c>
       <c r="D200" s="1" t="n">
@@ -11221,7 +11221,7 @@
         <v>1.875</v>
       </c>
       <c r="C201" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D201*B201/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B201 / ( $B$4 + $B$5 )   )</f>
         <v>2.685</v>
       </c>
       <c r="D201" s="1" t="n">
@@ -11238,7 +11238,7 @@
         <v>1.884765625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D202*B202/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B202 / ( $B$4 + $B$5 )   )</f>
         <v>2.675234375</v>
       </c>
       <c r="D202" s="1" t="n">
@@ -11255,7 +11255,7 @@
         <v>1.89453125</v>
       </c>
       <c r="C203" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D203*B203/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B203 / ( $B$4 + $B$5 )   )</f>
         <v>2.66546875</v>
       </c>
       <c r="D203" s="1" t="n">
@@ -11272,7 +11272,7 @@
         <v>1.904296875</v>
       </c>
       <c r="C204" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D204*B204/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B204 / ( $B$4 + $B$5 )   )</f>
         <v>2.655703125</v>
       </c>
       <c r="D204" s="1" t="n">
@@ -11289,7 +11289,7 @@
         <v>1.9140625</v>
       </c>
       <c r="C205" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D205*B205/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B205 / ( $B$4 + $B$5 )   )</f>
         <v>2.6459375</v>
       </c>
       <c r="D205" s="1" t="n">
@@ -11306,7 +11306,7 @@
         <v>1.923828125</v>
       </c>
       <c r="C206" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D206*B206/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B206 / ( $B$4 + $B$5 )   )</f>
         <v>2.636171875</v>
       </c>
       <c r="D206" s="1" t="n">
@@ -11323,7 +11323,7 @@
         <v>1.93359375</v>
       </c>
       <c r="C207" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D207*B207/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B207 / ( $B$4 + $B$5 )   )</f>
         <v>2.62640625</v>
       </c>
       <c r="D207" s="1" t="n">
@@ -11340,7 +11340,7 @@
         <v>1.943359375</v>
       </c>
       <c r="C208" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D208*B208/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B208 / ( $B$4 + $B$5 )   )</f>
         <v>2.616640625</v>
       </c>
       <c r="D208" s="1" t="n">
@@ -11357,7 +11357,7 @@
         <v>1.953125</v>
       </c>
       <c r="C209" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D209*B209/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B209 / ( $B$4 + $B$5 )   )</f>
         <v>2.606875</v>
       </c>
       <c r="D209" s="1" t="n">
@@ -11374,7 +11374,7 @@
         <v>1.962890625</v>
       </c>
       <c r="C210" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D210*B210/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B210 / ( $B$4 + $B$5 )   )</f>
         <v>2.597109375</v>
       </c>
       <c r="D210" s="1" t="n">
@@ -11391,7 +11391,7 @@
         <v>1.97265625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D211*B211/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B211 / ( $B$4 + $B$5 )   )</f>
         <v>2.58734375</v>
       </c>
       <c r="D211" s="1" t="n">
@@ -11408,7 +11408,7 @@
         <v>1.982421875</v>
       </c>
       <c r="C212" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D212*B212/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B212 / ( $B$4 + $B$5 )   )</f>
         <v>2.577578125</v>
       </c>
       <c r="D212" s="1" t="n">
@@ -11425,7 +11425,7 @@
         <v>1.9921875</v>
       </c>
       <c r="C213" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D213*B213/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B213 / ( $B$4 + $B$5 )   )</f>
         <v>2.5678125</v>
       </c>
       <c r="D213" s="1" t="n">
@@ -11442,7 +11442,7 @@
         <v>2.001953125</v>
       </c>
       <c r="C214" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D214*B214/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B214 / ( $B$4 + $B$5 )   )</f>
         <v>2.558046875</v>
       </c>
       <c r="D214" s="1" t="n">
@@ -11459,7 +11459,7 @@
         <v>2.01171875</v>
       </c>
       <c r="C215" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D215*B215/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B215 / ( $B$4 + $B$5 )   )</f>
         <v>2.54828125</v>
       </c>
       <c r="D215" s="1" t="n">
@@ -11476,7 +11476,7 @@
         <v>2.021484375</v>
       </c>
       <c r="C216" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D216*B216/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B216 / ( $B$4 + $B$5 )   )</f>
         <v>2.538515625</v>
       </c>
       <c r="D216" s="1" t="n">
@@ -11493,7 +11493,7 @@
         <v>2.03125</v>
       </c>
       <c r="C217" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D217*B217/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B217 / ( $B$4 + $B$5 )   )</f>
         <v>2.52875</v>
       </c>
       <c r="D217" s="1" t="n">
@@ -11510,7 +11510,7 @@
         <v>2.041015625</v>
       </c>
       <c r="C218" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D218*B218/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B218 / ( $B$4 + $B$5 )   )</f>
         <v>2.518984375</v>
       </c>
       <c r="D218" s="1" t="n">
@@ -11527,7 +11527,7 @@
         <v>2.05078125</v>
       </c>
       <c r="C219" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D219*B219/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B219 / ( $B$4 + $B$5 )   )</f>
         <v>2.50921875</v>
       </c>
       <c r="D219" s="1" t="n">
@@ -11544,7 +11544,7 @@
         <v>2.060546875</v>
       </c>
       <c r="C220" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D220*B220/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B220 / ( $B$4 + $B$5 )   )</f>
         <v>2.499453125</v>
       </c>
       <c r="D220" s="1" t="n">
@@ -11561,7 +11561,7 @@
         <v>2.0703125</v>
       </c>
       <c r="C221" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D221*B221/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B221 / ( $B$4 + $B$5 )   )</f>
         <v>2.4896875</v>
       </c>
       <c r="D221" s="1" t="n">
@@ -11578,7 +11578,7 @@
         <v>2.080078125</v>
       </c>
       <c r="C222" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D222*B222/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B222 / ( $B$4 + $B$5 )   )</f>
         <v>2.479921875</v>
       </c>
       <c r="D222" s="1" t="n">
@@ -11595,7 +11595,7 @@
         <v>2.08984375</v>
       </c>
       <c r="C223" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D223*B223/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B223 / ( $B$4 + $B$5 )   )</f>
         <v>2.47015625</v>
       </c>
       <c r="D223" s="1" t="n">
@@ -11612,7 +11612,7 @@
         <v>2.099609375</v>
       </c>
       <c r="C224" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D224*B224/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B224 / ( $B$4 + $B$5 )   )</f>
         <v>2.460390625</v>
       </c>
       <c r="D224" s="1" t="n">
@@ -11629,7 +11629,7 @@
         <v>2.109375</v>
       </c>
       <c r="C225" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D225*B225/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B225 / ( $B$4 + $B$5 )   )</f>
         <v>2.450625</v>
       </c>
       <c r="D225" s="1" t="n">
@@ -11646,7 +11646,7 @@
         <v>2.119140625</v>
       </c>
       <c r="C226" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D226*B226/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B226 / ( $B$4 + $B$5 )   )</f>
         <v>2.440859375</v>
       </c>
       <c r="D226" s="1" t="n">
@@ -11663,7 +11663,7 @@
         <v>2.12890625</v>
       </c>
       <c r="C227" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D227*B227/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B227 / ( $B$4 + $B$5 )   )</f>
         <v>2.43109375</v>
       </c>
       <c r="D227" s="1" t="n">
@@ -11680,7 +11680,7 @@
         <v>2.138671875</v>
       </c>
       <c r="C228" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D228*B228/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B228 / ( $B$4 + $B$5 )   )</f>
         <v>2.421328125</v>
       </c>
       <c r="D228" s="1" t="n">
@@ -11697,7 +11697,7 @@
         <v>2.1484375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D229*B229/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B229 / ( $B$4 + $B$5 )   )</f>
         <v>2.4115625</v>
       </c>
       <c r="D229" s="1" t="n">
@@ -11714,7 +11714,7 @@
         <v>2.158203125</v>
       </c>
       <c r="C230" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D230*B230/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B230 / ( $B$4 + $B$5 )   )</f>
         <v>2.401796875</v>
       </c>
       <c r="D230" s="1" t="n">
@@ -11731,7 +11731,7 @@
         <v>2.16796875</v>
       </c>
       <c r="C231" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D231*B231/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B231 / ( $B$4 + $B$5 )   )</f>
         <v>2.39203125</v>
       </c>
       <c r="D231" s="1" t="n">
@@ -11748,7 +11748,7 @@
         <v>2.177734375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D232*B232/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B232 / ( $B$4 + $B$5 )   )</f>
         <v>2.382265625</v>
       </c>
       <c r="D232" s="1" t="n">
@@ -11765,7 +11765,7 @@
         <v>2.1875</v>
       </c>
       <c r="C233" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D233*B233/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B233 / ( $B$4 + $B$5 )   )</f>
         <v>2.3725</v>
       </c>
       <c r="D233" s="1" t="n">
@@ -11782,7 +11782,7 @@
         <v>2.197265625</v>
       </c>
       <c r="C234" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D234*B234/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B234 / ( $B$4 + $B$5 )   )</f>
         <v>2.362734375</v>
       </c>
       <c r="D234" s="1" t="n">
@@ -11799,7 +11799,7 @@
         <v>2.20703125</v>
       </c>
       <c r="C235" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D235*B235/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B235 / ( $B$4 + $B$5 )   )</f>
         <v>2.35296875</v>
       </c>
       <c r="D235" s="1" t="n">
@@ -11816,7 +11816,7 @@
         <v>2.216796875</v>
       </c>
       <c r="C236" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D236*B236/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B236 / ( $B$4 + $B$5 )   )</f>
         <v>2.343203125</v>
       </c>
       <c r="D236" s="1" t="n">
@@ -11833,7 +11833,7 @@
         <v>2.2265625</v>
       </c>
       <c r="C237" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D237*B237/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B237 / ( $B$4 + $B$5 )   )</f>
         <v>2.3334375</v>
       </c>
       <c r="D237" s="1" t="n">
@@ -11850,7 +11850,7 @@
         <v>2.236328125</v>
       </c>
       <c r="C238" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D238*B238/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B238 / ( $B$4 + $B$5 )   )</f>
         <v>2.323671875</v>
       </c>
       <c r="D238" s="1" t="n">
@@ -11867,7 +11867,7 @@
         <v>2.24609375</v>
       </c>
       <c r="C239" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D239*B239/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B239 / ( $B$4 + $B$5 )   )</f>
         <v>2.31390625</v>
       </c>
       <c r="D239" s="1" t="n">
@@ -11884,7 +11884,7 @@
         <v>2.255859375</v>
       </c>
       <c r="C240" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D240*B240/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B240 / ( $B$4 + $B$5 )   )</f>
         <v>2.304140625</v>
       </c>
       <c r="D240" s="1" t="n">
@@ -11901,7 +11901,7 @@
         <v>2.265625</v>
       </c>
       <c r="C241" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D241*B241/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B241 / ( $B$4 + $B$5 )   )</f>
         <v>2.294375</v>
       </c>
       <c r="D241" s="1" t="n">
@@ -11918,7 +11918,7 @@
         <v>2.275390625</v>
       </c>
       <c r="C242" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D242*B242/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B242 / ( $B$4 + $B$5 )   )</f>
         <v>2.284609375</v>
       </c>
       <c r="D242" s="1" t="n">
@@ -11935,7 +11935,7 @@
         <v>2.28515625</v>
       </c>
       <c r="C243" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D243*B243/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B243 / ( $B$4 + $B$5 )   )</f>
         <v>2.27484375</v>
       </c>
       <c r="D243" s="1" t="n">
@@ -11952,7 +11952,7 @@
         <v>2.294921875</v>
       </c>
       <c r="C244" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D244*B244/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B244 / ( $B$4 + $B$5 )   )</f>
         <v>2.265078125</v>
       </c>
       <c r="D244" s="1" t="n">
@@ -11969,7 +11969,7 @@
         <v>2.3046875</v>
       </c>
       <c r="C245" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D245*B245/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B245 / ( $B$4 + $B$5 )   )</f>
         <v>2.2553125</v>
       </c>
       <c r="D245" s="1" t="n">
@@ -11986,7 +11986,7 @@
         <v>2.314453125</v>
       </c>
       <c r="C246" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D246*B246/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B246 / ( $B$4 + $B$5 )   )</f>
         <v>2.245546875</v>
       </c>
       <c r="D246" s="1" t="n">
@@ -12003,7 +12003,7 @@
         <v>2.32421875</v>
       </c>
       <c r="C247" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D247*B247/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B247 / ( $B$4 + $B$5 )   )</f>
         <v>2.23578125</v>
       </c>
       <c r="D247" s="1" t="n">
@@ -12020,7 +12020,7 @@
         <v>2.333984375</v>
       </c>
       <c r="C248" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D248*B248/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B248 / ( $B$4 + $B$5 )   )</f>
         <v>2.226015625</v>
       </c>
       <c r="D248" s="1" t="n">
@@ -12037,7 +12037,7 @@
         <v>2.34375</v>
       </c>
       <c r="C249" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D249*B249/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B249 / ( $B$4 + $B$5 )   )</f>
         <v>2.21625</v>
       </c>
       <c r="D249" s="1" t="n">
@@ -12054,7 +12054,7 @@
         <v>2.353515625</v>
       </c>
       <c r="C250" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D250*B250/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B250 / ( $B$4 + $B$5 )   )</f>
         <v>2.206484375</v>
       </c>
       <c r="D250" s="1" t="n">
@@ -12071,7 +12071,7 @@
         <v>2.36328125</v>
       </c>
       <c r="C251" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D251*B251/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B251 / ( $B$4 + $B$5 )   )</f>
         <v>2.19671875</v>
       </c>
       <c r="D251" s="1" t="n">
@@ -12088,7 +12088,7 @@
         <v>2.373046875</v>
       </c>
       <c r="C252" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D252*B252/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B252 / ( $B$4 + $B$5 )   )</f>
         <v>2.186953125</v>
       </c>
       <c r="D252" s="1" t="n">
@@ -12105,7 +12105,7 @@
         <v>2.3828125</v>
       </c>
       <c r="C253" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D253*B253/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B253 / ( $B$4 + $B$5 )   )</f>
         <v>2.1771875</v>
       </c>
       <c r="D253" s="1" t="n">
@@ -12122,7 +12122,7 @@
         <v>2.392578125</v>
       </c>
       <c r="C254" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D254*B254/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B254 / ( $B$4 + $B$5 )   )</f>
         <v>2.167421875</v>
       </c>
       <c r="D254" s="1" t="n">
@@ -12139,7 +12139,7 @@
         <v>2.40234375</v>
       </c>
       <c r="C255" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D255*B255/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B255 / ( $B$4 + $B$5 )   )</f>
         <v>2.15765625</v>
       </c>
       <c r="D255" s="1" t="n">
@@ -12156,7 +12156,7 @@
         <v>2.412109375</v>
       </c>
       <c r="C256" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D256*B256/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B256 / ( $B$4 + $B$5 )   )</f>
         <v>2.147890625</v>
       </c>
       <c r="D256" s="1" t="n">
@@ -12173,7 +12173,7 @@
         <v>2.421875</v>
       </c>
       <c r="C257" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D257*B257/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B257 / ( $B$4 + $B$5 )   )</f>
         <v>2.138125</v>
       </c>
       <c r="D257" s="1" t="n">
@@ -12190,7 +12190,7 @@
         <v>2.431640625</v>
       </c>
       <c r="C258" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D258*B258/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B258 / ( $B$4 + $B$5 )   )</f>
         <v>2.128359375</v>
       </c>
       <c r="D258" s="1" t="n">
@@ -12207,7 +12207,7 @@
         <v>2.44140625</v>
       </c>
       <c r="C259" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D259*B259/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B259 / ( $B$4 + $B$5 )   )</f>
         <v>2.11859375</v>
       </c>
       <c r="D259" s="1" t="n">
@@ -12224,7 +12224,7 @@
         <v>2.451171875</v>
       </c>
       <c r="C260" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D260*B260/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B260 / ( $B$4 + $B$5 )   )</f>
         <v>2.108828125</v>
       </c>
       <c r="D260" s="1" t="n">
@@ -12241,7 +12241,7 @@
         <v>2.4609375</v>
       </c>
       <c r="C261" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D261*B261/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B261 / ( $B$4 + $B$5 )   )</f>
         <v>2.0990625</v>
       </c>
       <c r="D261" s="1" t="n">
@@ -12258,7 +12258,7 @@
         <v>2.470703125</v>
       </c>
       <c r="C262" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D262*B262/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B262 / ( $B$4 + $B$5 )   )</f>
         <v>2.089296875</v>
       </c>
       <c r="D262" s="1" t="n">
@@ -12275,7 +12275,7 @@
         <v>2.48046875</v>
       </c>
       <c r="C263" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D263*B263/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B263 / ( $B$4 + $B$5 )   )</f>
         <v>2.07953125</v>
       </c>
       <c r="D263" s="1" t="n">
@@ -12292,7 +12292,7 @@
         <v>2.490234375</v>
       </c>
       <c r="C264" s="5" t="n">
-        <f aca="false">( $B$1/$B$4 - D264*B264/( $B$5+$B$4 )    )* ( $B$6+$B$4 )</f>
+        <f aca="false">( $B$6 +$B$4 ) * ( ( $B$1 /$B$4 ) - $B264 / ( $B$4 + $B$5 )   )</f>
         <v>2.069765625</v>
       </c>
       <c r="D264" s="1" t="n">

--- a/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
+++ b/Ethernet_switch_4out/DOCs/SMPS_Math.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t xml:space="preserve">FB pin</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t xml:space="preserve">sgn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c++ code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mess-xcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mess-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mess_delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAC</t>
   </si>
   <si>
     <t xml:space="preserve">Vin_max [V]</t>
@@ -345,7 +366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,6 +391,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,13 +420,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -425,20 +454,20 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF595959"/>
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -450,7 +479,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2174,11 +2203,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33082939"/>
-        <c:axId val="16023874"/>
+        <c:axId val="81850572"/>
+        <c:axId val="11399630"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33082939"/>
+        <c:axId val="81850572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2239,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16023874"/>
+        <c:crossAx val="11399630"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="16023874"/>
+        <c:axId val="11399630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2286,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33082939"/>
+        <c:crossAx val="81850572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2309,7 +2338,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3180,11 +3209,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36991465"/>
-        <c:axId val="35257801"/>
+        <c:axId val="37177098"/>
+        <c:axId val="84799747"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36991465"/>
+        <c:axId val="37177098"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,12 +3241,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35257801"/>
+        <c:crossAx val="84799747"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35257801"/>
+        <c:axId val="84799747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +3283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36991465"/>
+        <c:crossAx val="37177098"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3302,6 +3331,1291 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$O$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout_with_DAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$O$40:$O$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.315859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.07171875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.827578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5834375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.339296875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09515625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.851015625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.606875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.362734375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.11859375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$P$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c++ code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$P$40:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$Q$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>measured</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$Q$40:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.216</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$R$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$R$40:$R$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$S$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mess-xcel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$S$40:$S$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.893140624999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108281249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.152421875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9405625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.936703124999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.12084375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.364984375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.985125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.001265625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01340625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$T$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mess-code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$T$40:$T$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="91875069"/>
+        <c:axId val="97171578"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91875069"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97171578"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97171578"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91875069"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$R$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c++ code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>digital_buck!$Q$87:$Q$96</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$R$87:$R$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$S$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>measured</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>digital_buck!$Q$87:$Q$96</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$S$87:$S$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>digital_buck!$T$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mess-xcel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>digital_buck!$Q$87:$Q$96</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>digital_buck!$T$87:$T$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.917</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.962</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="5460450"/>
+        <c:axId val="5867587"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5460450"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5867587"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5867587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5460450"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3313,9 +4627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>599760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3324,7 +4638,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6435000" y="809640"/>
-        <a:ext cx="6517080" cy="4071240"/>
+        <a:ext cx="6516720" cy="4070880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3348,9 +4662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3359,11 +4673,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8088120" y="1107360"/>
-        <a:ext cx="9125280" cy="5132160"/>
+        <a:ext cx="9124920" cy="5131800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>72360</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14781600" y="6735960"/>
+        <a:ext cx="10484280" cy="5897160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>574920</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>44640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14798160" y="13357800"/>
+        <a:ext cx="9135720" cy="5138640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3379,7 +4753,7 @@
   </sheetPr>
   <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -7847,10 +9221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V79" activeCellId="0" sqref="V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7947,6 +9321,18 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -7964,6 +9350,20 @@
         <f aca="false">IF(  $B9&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5.456</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">F9-C9</f>
+        <v>0.896</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">F9-E9</f>
+        <v>0.896000000000001</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -8389,6 +9789,20 @@
         <f aca="false">IF(  $B34&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>4.319</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>5.209</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">F34-C34</f>
+        <v>0.893140624999999</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">F34-E34</f>
+        <v>0.89</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -8474,6 +9888,27 @@
         <f aca="false">IF(  $B39&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -8491,6 +9926,34 @@
         <f aca="false">IF(  $B40&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <f aca="false">C9</f>
+        <v>4.56</v>
+      </c>
+      <c r="P40" s="6" t="n">
+        <f aca="false">E9</f>
+        <v>4.56</v>
+      </c>
+      <c r="Q40" s="6" t="n">
+        <f aca="false">F9</f>
+        <v>5.456</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="n">
+        <f aca="false">H9</f>
+        <v>0.896</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <f aca="false">I9</f>
+        <v>0.896000000000001</v>
+      </c>
+      <c r="U40" s="6" t="n">
+        <f aca="false">S40-T40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -8508,6 +9971,34 @@
         <f aca="false">IF(  $B41&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <f aca="false">C34</f>
+        <v>4.315859375</v>
+      </c>
+      <c r="P41" s="6" t="n">
+        <f aca="false">E34</f>
+        <v>4.319</v>
+      </c>
+      <c r="Q41" s="6" t="n">
+        <f aca="false">F34</f>
+        <v>5.209</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="n">
+        <f aca="false">H34</f>
+        <v>0.893140624999999</v>
+      </c>
+      <c r="T41" s="6" t="n">
+        <f aca="false">I34</f>
+        <v>0.89</v>
+      </c>
+      <c r="U41" s="6" t="n">
+        <f aca="false">S41-T41</f>
+        <v>0.00314062499999945</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -8525,6 +10016,34 @@
         <f aca="false">IF(  $B42&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N42" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <f aca="false">C59</f>
+        <v>4.07171875</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <f aca="false">E59</f>
+        <v>4.078</v>
+      </c>
+      <c r="Q42" s="6" t="n">
+        <f aca="false">F59</f>
+        <v>4.18</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="n">
+        <f aca="false">H59</f>
+        <v>0.108281249999999</v>
+      </c>
+      <c r="T42" s="6" t="n">
+        <f aca="false">I59</f>
+        <v>0.101999999999999</v>
+      </c>
+      <c r="U42" s="6" t="n">
+        <f aca="false">S42-T42</f>
+        <v>0.00628124999999979</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -8542,6 +10061,34 @@
         <f aca="false">IF(  $B43&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N43" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <f aca="false">C84</f>
+        <v>3.827578125</v>
+      </c>
+      <c r="P43" s="6" t="n">
+        <f aca="false">E84</f>
+        <v>3.836</v>
+      </c>
+      <c r="Q43" s="6" t="n">
+        <f aca="false">F84</f>
+        <v>4.98</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="n">
+        <f aca="false">H84</f>
+        <v>1.152421875</v>
+      </c>
+      <c r="T43" s="6" t="n">
+        <f aca="false">I84</f>
+        <v>1.144</v>
+      </c>
+      <c r="U43" s="6" t="n">
+        <f aca="false">S43-T43</f>
+        <v>0.00842187499999936</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -8559,6 +10106,34 @@
         <f aca="false">IF(  $B44&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N44" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <f aca="false">C109</f>
+        <v>3.5834375</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <f aca="false">E109</f>
+        <v>3.595</v>
+      </c>
+      <c r="Q44" s="6" t="n">
+        <f aca="false">F109</f>
+        <v>4.524</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="n">
+        <f aca="false">H109</f>
+        <v>0.9405625</v>
+      </c>
+      <c r="T44" s="6" t="n">
+        <f aca="false">I109</f>
+        <v>0.929</v>
+      </c>
+      <c r="U44" s="6" t="n">
+        <f aca="false">S44-T44</f>
+        <v>0.0115624999999997</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -8576,6 +10151,34 @@
         <f aca="false">IF(  $B45&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N45" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <f aca="false">C134</f>
+        <v>3.339296875</v>
+      </c>
+      <c r="P45" s="6" t="n">
+        <f aca="false">E134</f>
+        <v>3.354</v>
+      </c>
+      <c r="Q45" s="6" t="n">
+        <f aca="false">F134</f>
+        <v>4.276</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="n">
+        <f aca="false">H134</f>
+        <v>0.936703124999999</v>
+      </c>
+      <c r="T45" s="6" t="n">
+        <f aca="false">I134</f>
+        <v>0.922</v>
+      </c>
+      <c r="U45" s="6" t="n">
+        <f aca="false">S45-T45</f>
+        <v>0.0147031249999996</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -8593,6 +10196,34 @@
         <f aca="false">IF(  $B46&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N46" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <f aca="false">C159</f>
+        <v>3.09515625</v>
+      </c>
+      <c r="P46" s="6" t="n">
+        <f aca="false">E159</f>
+        <v>3.113</v>
+      </c>
+      <c r="Q46" s="6" t="n">
+        <f aca="false">F159</f>
+        <v>4.216</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="n">
+        <f aca="false">H159</f>
+        <v>1.12084375</v>
+      </c>
+      <c r="T46" s="6" t="n">
+        <f aca="false">I159</f>
+        <v>1.103</v>
+      </c>
+      <c r="U46" s="6" t="n">
+        <f aca="false">S46-T46</f>
+        <v>0.0178437499999995</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -8610,6 +10241,34 @@
         <f aca="false">IF(  $B47&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N47" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <f aca="false">C184</f>
+        <v>2.851015625</v>
+      </c>
+      <c r="P47" s="6" t="n">
+        <f aca="false">E184</f>
+        <v>2.872</v>
+      </c>
+      <c r="Q47" s="6" t="n">
+        <f aca="false">F184</f>
+        <v>4.216</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="n">
+        <f aca="false">H184</f>
+        <v>1.364984375</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <f aca="false">I184</f>
+        <v>1.344</v>
+      </c>
+      <c r="U47" s="6" t="n">
+        <f aca="false">S47-T47</f>
+        <v>0.0209843749999994</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -8627,6 +10286,34 @@
         <f aca="false">IF(  $B48&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N48" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <f aca="false">C209</f>
+        <v>2.606875</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <f aca="false">E209</f>
+        <v>2.63</v>
+      </c>
+      <c r="Q48" s="6" t="n">
+        <f aca="false">F209</f>
+        <v>3.592</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6" t="n">
+        <f aca="false">H209</f>
+        <v>0.985125</v>
+      </c>
+      <c r="T48" s="6" t="n">
+        <f aca="false">I209</f>
+        <v>0.962</v>
+      </c>
+      <c r="U48" s="6" t="n">
+        <f aca="false">S48-T48</f>
+        <v>0.0231249999999994</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -8644,6 +10331,34 @@
         <f aca="false">IF(  $B49&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N49" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <f aca="false">C234</f>
+        <v>2.362734375</v>
+      </c>
+      <c r="P49" s="6" t="n">
+        <f aca="false">E234</f>
+        <v>2.389</v>
+      </c>
+      <c r="Q49" s="6" t="n">
+        <f aca="false">F234</f>
+        <v>3.364</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6" t="n">
+        <f aca="false">H234</f>
+        <v>1.001265625</v>
+      </c>
+      <c r="T49" s="6" t="n">
+        <f aca="false">I234</f>
+        <v>0.975</v>
+      </c>
+      <c r="U49" s="6" t="n">
+        <f aca="false">S49-T49</f>
+        <v>0.0262656249999993</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -8661,6 +10376,34 @@
         <f aca="false">IF(  $B50&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="N50" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <f aca="false">C259</f>
+        <v>2.11859375</v>
+      </c>
+      <c r="P50" s="6" t="n">
+        <f aca="false">E259</f>
+        <v>2.148</v>
+      </c>
+      <c r="Q50" s="6" t="n">
+        <f aca="false">F259</f>
+        <v>3.132</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6" t="n">
+        <f aca="false">H259</f>
+        <v>1.01340625</v>
+      </c>
+      <c r="T50" s="6" t="n">
+        <f aca="false">I259</f>
+        <v>0.984</v>
+      </c>
+      <c r="U50" s="6" t="n">
+        <f aca="false">S50-T50</f>
+        <v>0.0294062499999996</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -8678,6 +10421,13 @@
         <f aca="false">IF(  $B51&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -8695,6 +10445,13 @@
         <f aca="false">IF(  $B52&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -8712,6 +10469,13 @@
         <f aca="false">IF(  $B53&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -8729,6 +10493,13 @@
         <f aca="false">IF(  $B54&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -8746,6 +10517,13 @@
         <f aca="false">IF(  $B55&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -8763,6 +10541,13 @@
         <f aca="false">IF(  $B56&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -8780,6 +10565,13 @@
         <f aca="false">IF(  $B57&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -8797,6 +10589,13 @@
         <f aca="false">IF(  $B58&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -8814,6 +10613,27 @@
         <f aca="false">IF(  $B59&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <v>4.078</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">F59-C59</f>
+        <v>0.108281249999999</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">F59-E59</f>
+        <v>0.101999999999999</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -8831,6 +10651,13 @@
         <f aca="false">IF(  $B60&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -8848,6 +10675,13 @@
         <f aca="false">IF(  $B61&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -8865,6 +10699,13 @@
         <f aca="false">IF(  $B62&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -8882,6 +10723,13 @@
         <f aca="false">IF(  $B63&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -8899,6 +10747,13 @@
         <f aca="false">IF(  $B64&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -8916,6 +10771,13 @@
         <f aca="false">IF(  $B65&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -8933,6 +10795,13 @@
         <f aca="false">IF(  $B66&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -8950,6 +10819,13 @@
         <f aca="false">IF(  $B67&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -8967,6 +10843,13 @@
         <f aca="false">IF(  $B68&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -8984,6 +10867,13 @@
         <f aca="false">IF(  $B69&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -9239,6 +11129,20 @@
         <f aca="false">IF(  $B84&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <f aca="false">F84-C84</f>
+        <v>1.152421875</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">F84-E84</f>
+        <v>1.144</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -9273,6 +11177,21 @@
         <f aca="false">IF(  $B86&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="P86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T86" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -9290,6 +11209,23 @@
         <f aca="false">IF(  $B87&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="P87" s="0" t="n">
+        <f aca="false">B49</f>
+        <v>0.390625</v>
+      </c>
+      <c r="Q87" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>4.174</v>
+      </c>
+      <c r="S87" s="0" t="n">
+        <v>5.072</v>
+      </c>
+      <c r="T87" s="0" t="n">
+        <f aca="false">R87-S87</f>
+        <v>-0.898</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -9307,6 +11243,23 @@
         <f aca="false">IF(  $B88&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="P88" s="7" t="n">
+        <f aca="false">B49</f>
+        <v>0.390625</v>
+      </c>
+      <c r="Q88" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>4.078</v>
+      </c>
+      <c r="S88" s="0" t="n">
+        <v>4.976</v>
+      </c>
+      <c r="T88" s="0" t="n">
+        <f aca="false">R88-S88</f>
+        <v>-0.898</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -9324,6 +11277,23 @@
         <f aca="false">IF(  $B89&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="P89" s="7" t="n">
+        <f aca="false">B69</f>
+        <v>0.5859375</v>
+      </c>
+      <c r="Q89" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="S89" s="0" t="n">
+        <v>4.892</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <f aca="false">R89-S89</f>
+        <v>-0.911000000000001</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -9341,6 +11311,23 @@
         <f aca="false">IF(  $B90&lt;$B$1, -1, 1 )</f>
         <v>-1</v>
       </c>
+      <c r="P90" s="7" t="n">
+        <f aca="false">B79</f>
+        <v>0.68359375</v>
+      </c>
+      <c r="Q90" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>3.885</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <f aca="false">R90-S90</f>
+        <v>-0.915</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -9358,6 +11345,23 @@
         <f aca="false">IF(  $B91&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P91" s="7" t="n">
+        <f aca="false">B89</f>
+        <v>0.78125</v>
+      </c>
+      <c r="Q91" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>3.788</v>
+      </c>
+      <c r="S91" s="0" t="n">
+        <v>4.708</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <f aca="false">R91-S91</f>
+        <v>-0.92</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -9375,6 +11379,23 @@
         <f aca="false">IF(  $B92&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P92" s="7" t="n">
+        <f aca="false">B99</f>
+        <v>0.87890625</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>4.616</v>
+      </c>
+      <c r="T92" s="0" t="n">
+        <f aca="false">R92-S92</f>
+        <v>-0.924</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -9392,6 +11413,23 @@
         <f aca="false">IF(  $B93&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P93" s="7" t="n">
+        <f aca="false">B109</f>
+        <v>0.9765625</v>
+      </c>
+      <c r="Q93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="S93" s="0" t="n">
+        <v>4.516</v>
+      </c>
+      <c r="T93" s="0" t="n">
+        <f aca="false">R93-S93</f>
+        <v>-0.921</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -9409,6 +11447,23 @@
         <f aca="false">IF(  $B94&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P94" s="7" t="n">
+        <f aca="false">B119</f>
+        <v>1.07421875</v>
+      </c>
+      <c r="Q94" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>3.499</v>
+      </c>
+      <c r="S94" s="0" t="n">
+        <v>4.416</v>
+      </c>
+      <c r="T94" s="0" t="n">
+        <f aca="false">R94-S94</f>
+        <v>-0.917</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -9426,6 +11481,23 @@
         <f aca="false">IF(  $B95&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P95" s="7" t="n">
+        <f aca="false">B129</f>
+        <v>1.171875</v>
+      </c>
+      <c r="Q95" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>3.402</v>
+      </c>
+      <c r="S95" s="0" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="T95" s="0" t="n">
+        <f aca="false">R95-S95</f>
+        <v>-0.962</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -9443,6 +11515,23 @@
         <f aca="false">IF(  $B96&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="P96" s="7" t="n">
+        <f aca="false">B139</f>
+        <v>1.26953125</v>
+      </c>
+      <c r="Q96" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>3.306</v>
+      </c>
+      <c r="S96" s="0" t="n">
+        <v>4.344</v>
+      </c>
+      <c r="T96" s="0" t="n">
+        <f aca="false">R96-S96</f>
+        <v>-1.038</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -9664,6 +11753,20 @@
         <f aca="false">IF(  $B109&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <v>3.595</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>4.524</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <f aca="false">F109-C109</f>
+        <v>0.9405625</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <f aca="false">F109-E109</f>
+        <v>0.929</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -10089,6 +12192,20 @@
         <f aca="false">IF(  $B134&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E134" s="0" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>4.276</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <f aca="false">F134-C134</f>
+        <v>0.936703124999999</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <f aca="false">F134-E134</f>
+        <v>0.922</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -10514,6 +12631,20 @@
         <f aca="false">IF(  $B159&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E159" s="0" t="n">
+        <v>3.113</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>4.216</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <f aca="false">F159-C159</f>
+        <v>1.12084375</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <f aca="false">F159-E159</f>
+        <v>1.103</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -10939,6 +13070,20 @@
         <f aca="false">IF(  $B184&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E184" s="0" t="n">
+        <v>2.872</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>4.216</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <f aca="false">F184-C184</f>
+        <v>1.364984375</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <f aca="false">F184-E184</f>
+        <v>1.344</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
@@ -11364,6 +13509,20 @@
         <f aca="false">IF(  $B209&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E209" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>3.592</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <f aca="false">F209-C209</f>
+        <v>0.985125</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <f aca="false">F209-E209</f>
+        <v>0.962</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
@@ -11789,6 +13948,20 @@
         <f aca="false">IF(  $B234&lt;$B$1, -1, 1 )</f>
         <v>1</v>
       </c>
+      <c r="E234" s="0" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <f aca="false">F234-C234</f>
+        <v>1.001265625</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <f aca="false">F234-E234</f>
+        <v>0.975</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
@@ -12213,6 +14386,20 @@
       <c r="D259" s="1" t="n">
         <f aca="false">IF(  $B259&lt;$B$1, -1, 1 )</f>
         <v>1</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <f aca="false">F259-C259</f>
+        <v>1.01340625</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <f aca="false">F259-E259</f>
+        <v>0.984</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12319,7 +14506,7 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -12333,7 +14520,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>24</v>
@@ -12341,7 +14528,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>5</v>
@@ -12349,7 +14536,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>12</v>
@@ -12357,18 +14544,18 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -12380,7 +14567,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>570</v>
@@ -12388,14 +14575,14 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="n">
         <f aca="false">$B$4/$B$2</f>
         <v>0.8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">B4/(  B7*1000*0.24*B5  ) * (  1-B4/B1  ) *1000000</f>
@@ -12404,238 +14591,238 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="n">
         <f aca="false">$B$4/$B$1</f>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="n">
         <f aca="false">$B$4/$B$3</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="n">
         <f aca="false">$B$4* ( $B$1-$B$4 ) / ( $B$1*$B$13*$B$5*$B$7*1000 ) * (10^6)</f>
         <v>19.4931773879142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="n">
         <f aca="false">$B$4* ( $B$2-$B$4 ) / ( $B$2*$B$13*$B$5*$B$7*1000 ) * (10^6)</f>
         <v>4.67836257309942</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="n">
         <f aca="false">$B$4* ( $B$3-$B$4 ) / ( $B$3*$B$13*$B$5*$B$7*1000 ) * (10^6)</f>
         <v>15.5945419103314</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="n">
         <f aca="false">SQRT(  $B$5^2+     ($B$4*($B1-$B$4)/     ($B1*$B$7*1000*0.8   *$B$20/1000000)         )^2/12        )</f>
         <v>1.00555076585677</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B24" s="8" t="n">
         <f aca="false">SQRT(  $B$5^2+     ($B$4*($B2-$B$4)/     ($B2*$B$7*1000*0.8   *$B$20/1000000)         )^2/12        )</f>
         <v>1.00032056009081</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="n">
         <f aca="false">SQRT(  $B$5^2+     ($B$4*($B3-$B$4)/     ($B3*$B$7*1000*0.8   *$B$20/1000000)         )^2/12        )</f>
         <v>1.00355602700481</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8" t="n">
         <f aca="false">$B$5+    $B$4*($B1-$B$4)/     ($B1*$B$7*1000*1.6   *$B$20/1000000)</f>
         <v>1.1827485380117</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="n">
         <f aca="false">$B$5+    $B$4*($B2-$B$4)/     ($B2*$B$7*1000*1.6   *$B$20/1000000)</f>
         <v>1.04385964912281</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8" t="n">
         <f aca="false">$B$5+    $B$4*($B3-$B$4)/     ($B3*$B$7*1000*1.6   *$B$20/1000000)</f>
         <v>1.14619883040936</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B33" s="8" t="n">
         <f aca="false">1 / ( 2 * PI() * $D$5 *$B$14 *1000 ) * (10^6)</f>
         <v>1.98943678864869</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="6"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B36" s="8" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B37" s="8" t="n">
         <v>0.001</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8" t="n">
         <f aca="false">$B27*(  ($B$11-0.5) / ( 4*$B$7*1000*$B$36*1000000 )  +$B$37  )</f>
         <v>0.00118274853800305</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B39" s="8" t="n">
         <f aca="false">$B28*(  ($B$11-0.5) / ( 4*$B$7*1000*$B$36*1000000 )  +$B$37  )</f>
         <v>0.00104385964911518</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B40" s="8" t="n">
         <f aca="false">$B29*(  ($B$11-0.5) / ( 4*$B$7*1000*$B$36*1000000 )  +$B$37  )</f>
         <v>0.00114619883040098</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="6"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="6"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="n">
         <f aca="false">800*0.8/B4</f>
@@ -12644,7 +14831,7 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="n">
         <f aca="false">-20 * LOG(  2*PI() /12 *$B$14*1000 *$B$36*1000000)</f>
@@ -12652,8 +14839,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>49</v>
+      <c r="A48" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="n">
         <f aca="false">(2 * PI() *$B$14*1000 *$B$4 *$B$36 /1000000 *8000000) / (  12* 800 *0.8) /1000</f>
@@ -12662,69 +14849,69 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B49" s="8" t="n">
         <f aca="false">DEGREES(      ATAN( 2* PI() *$B$14 *1000 *$B$37*$B$36 ) -ATAN(   2* PI() *$B$14 *1000 *$D$5*$B$36   )    )</f>
         <v>-0.0455831243815318</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B50" s="8" t="n">
         <f aca="false">(70-90)  - $B$49</f>
         <v>-19.9544168756185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B51" s="8" t="n">
         <f aca="false">TAN( $B$50/2 +45)</f>
         <v>0.502032607669976</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B52" s="8" t="n">
         <f aca="false">B14*1000/B51 /1000</f>
         <v>39.8380497490464</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B53" s="8" t="n">
         <f aca="false">B14*1000*B51 /1000</f>
         <v>10.0406521533995</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="6" t="n">
+      <c r="A54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="8" t="n">
         <f aca="false">1/ ( 2*PI() *$B52*$B$48*1000 ) * (10^9)</f>
         <v>762.99807054257</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="6" t="n">
+      <c r="A55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="8" t="n">
         <f aca="false">1/ ( 2*PI() *$B53*$B$48*1000 ) * (10^9)</f>
         <v>3027.32876593179</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="6"/>
+      <c r="B56" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
